--- a/results/data/10_26_2022/12_02_50_robothor.xlsx
+++ b/results/data/10_26_2022/12_02_50_robothor.xlsx
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1713,37 +1713,37 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 81, 110, 153, 208, 208, 246, 258]</t>
+          <t>[81, 81, 81, 81, 81, 81, 110, 153, 208, 208, 246, 258, 265, 267, 313, 418, 422, 422, 422, 422, 438, 438, 438, 438, 438, 438, 438, 471, 490, 490, 533, 549, 625, 625, 625, 679, 679, 686, 698, 698, 752, 777, 777, 810, 811, 862, 896, 927, 931, 941, 950, 965, 967, 975, 978, 1015, 1015, 1015, 1015, 1015, 1081, 1094, 1094, 1094, 1094, 1122, 1122, 1126, 1126, 1126, 1149, 1160, 1167, 1174, 1185, 1217, 1217, 1217, 1217, 1217, 1217, 1238, 1239, 1241, 1268, 1277, 1277, 1277, 1277, 1277, 1277, 1277, 1279, 1286, 1286, 1303, 1303, 1303, 1353, 1353, 1353, 1361, 1379, 1380, 1380, 1399, 1399, 1399, 1399, 1399, 1402, 1402, 1402, 1404, 1404, 1404, 1404, 1404, 1447, 1447, 1447]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.34, 0.335, 0.295, 0.318, 0.316, 0.32, 0.325]</t>
+          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.34, 0.335, 0.295, 0.318, 0.316, 0.32, 0.325, 0.338, 0.348, 0.338, 0.348, 0.346, 0.348, 0.35, 0.35, 0.355, 0.353, 0.348, 0.352, 0.348, 0.348, 0.35, 0.35, 0.352, 0.357, 0.365, 0.361, 0.363, 0.37, 0.365, 0.385, 0.383, 0.389, 0.385, 0.393, 0.4, 0.391, 0.397, 0.41, 0.402, 0.398, 0.404, 0.397, 0.402, 0.41, 0.414, 0.423, 0.419, 0.423, 0.421, 0.429, 0.417, 0.417, 0.432, 0.434, 0.434, 0.438, 0.438, 0.432, 0.434, 0.447, 0.461, 0.442, 0.449, 0.447, 0.451, 0.445, 0.444, 0.449, 0.447, 0.445, 0.451, 0.457, 0.455, 0.444, 0.453, 0.457, 0.455, 0.464, 0.455, 0.466, 0.466, 0.464, 0.466, 0.462, 0.459, 0.459, 0.468, 0.47, 0.472, 0.481, 0.476, 0.481, 0.487, 0.494, 0.485, 0.489, 0.491, 0.485, 0.487, 0.487, 0.498, 0.494, 0.489, 0.494, 0.492, 0.504, 0.496, 0.5, 0.498, 0.494, 0.496, 0.491, 0.491, 0.502, 0.494]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0, 40.470269441604685, 64.13457570075997, 98.4330227136613, 136.90181086063393, 156.43178150653847, 181.64116132259375, 199.6538618803025, 230.84251029491423, 231.26221029758452, 268.05716755390165, 303.85477840900415]</t>
+          <t>[0, 40.470269441604685, 64.13457570075997, 98.4330227136613, 136.90181086063393, 156.43178150653847, 181.64116132259375, 199.6538618803025, 230.84251029491423, 231.26221029758452, 268.05716755390165, 303.85477840900415, 333.31036453247066, 370.99091601371754, 408.64838514328, 460.04063282012936, 474.3356558322906, 526.7734422206878, 551.9440514326095, 551.9440514326095, 571.2598509073257, 615.1381430387497, 650.3196954488754, 699.3529510498047, 753.2309544801714, 801.8388814210892, 838.8472484827042, 874.4537495851517, 908.0839758872986, 908.5036758899689, 955.7847737789155, 967.906558173895, 1010.8493767201901, 1050.6983885228633, 1102.0906361997127, 1146.950932353735, 1183.654974156618, 1207.009870380163, 1245.0377369344233, 1287.8466390788553, 1305.8745052874087, 1350.3587050974368, 1375.7299725830553, 1396.0989910662172, 1428.7367773354051, 1479.150125056505, 1496.6508851051328, 1547.519958257675, 1578.707176828384, 1606.8346370220181, 1635.3553169846532, 1671.9456937670705, 1705.064828932285, 1748.235671675205, 1793.7965602517127, 1847.6360578179358, 1865.7476583123205, 1921.174380099773, 1949.2378169894216, 1949.2378169894216, 1966.7540860295294, 1997.5250394940374, 2049.8560859322542, 2091.393076670169, 2143.764224302768, 2171.1479122519486, 2228.111504185199, 2271.152209186553, 2319.6552724122994, 2363.453976631164, 2392.8991695761674, 2427.213246715068, 2462.8512480378145, 2501.964583694934, 2542.411494982242, 2588.419792902469, 2607.8024432301513, 2661.1853887677185, 2687.4919401526445, 2687.4919401526445, 2707.393634498119, 2746.0141769051547, 2775.820209515094, 2832.9703626751893, 2878.531251251697, 2928.944598972797, 2944.282664573192, 2999.5549316763872, 3026.877612483501, 3026.877612483501, 3046.332511758804, 3049.3456619501108, 3076.815083050727, 3144.635525441169, 3176.234421229362, 3225.3528070211405, 3292.8744485616676, 3335.362786269187, 3390.735122227668, 3440.5005197286596, 3454.0416106939306, 3487.1717594623556, 3525.2616956293573, 3564.403556424378, 3620.690303879975, 3655.845890074967, 3712.041163951157, 3750.724527913331, 3795.534474545716, 3839.828079372643, 3859.9924515187727, 3912.687783139943, 3942.08285216689, 3969.8224370658386, 4002.412522262334, 4052.8258699834337, 4071.9436705052844, 4125.719547837972, 4178.81940550208, 4207.754664653539, 4218.505660682917]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>[0, 1.06, 2.08, 3.22, 5.43, 6.93, 19.62, 27.34, 39.31, 43.42, 64.57, 73.41]</t>
+          <t>[0, 1.06, 2.08, 3.22, 5.43, 6.93, 19.62, 27.34, 39.31, 43.42, 64.57, 73.41, 84.15, 94.04, 116.67, 140.97, 154.79, 163.94, 176.5, 190.97, 210.1, 225.4, 237.02, 248.24, 259.45, 270.79, 282.43, 298.7, 313.49, 325.95, 351.31, 367.3, 396.99, 413.09, 429.68, 452.77, 468.46, 486.64, 504.34, 522.06, 546.98, 565.41, 578.23, 605.48, 621.74, 654.35, 673.21, 696.16, 716.02, 738.49, 761.07, 783.27, 804.56, 825.79, 848.18, 877.61, 896.42, 918.98, 937.59, 957.47, 988.41, 1013.99, 1039.2, 1064.13, 1088.31, 1116.89, 1143.9, 1167.89, 1194.45, 1217.83, 1245.02, 1272.67, 1297.27, 1325.33, 1352.08, 1379.71, 1404.22, 1432.33, 1457.92, 1487.77, 1511.66, 1541.91, 1568.89, 1594.95, 1623.03, 1650.44, 1674.97, 1698.88, 1725.81, 1752.56, 1780.1, 1802.33, 1830.18, 1854.89, 1875.71, 1904.11, 1928.99, 1959.5, 1993.78, 2023.49, 2050.76, 2079.72, 2110.52, 2141.21, 2170.55, 2204.5, 2235.93, 2262.43, 2290.7, 2319.21, 2347.35, 2375.93, 2407.93, 2440.22, 2466.46, 2496.0, 2527.23, 2558.4, 2590.54, 2620.24, 2649.64]</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[0, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, 0, -10, -10, -10, -20, -20, 0, 0, -20, 0, -20, -20, -20, -20, -20, 0, -20, -20, 0, -20, -20, -20, -20, -20, -20, -20, -10, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -20, -20]</t>
+          <t>[0, -10, -10, -10, -10, -10, -10, 0, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, 0, -10, 0, 0, 0, 0, -10, 0, -20, -20, 0, -20, -20, 0, -20, -20, -20, -20, 0, 0, -20, -20, -20, 0, 0, 0, -20, -20, -20, 0, -20, 0, -20, -10, 0, -10, -10, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, 0, 0, 0, -20, 0]</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1782,37 +1782,37 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[81, 81, 115, 115, 115, 116, 116, 174, 224]</t>
+          <t>[81, 81, 115, 115, 115, 116, 116, 174, 224, 224, 257, 281, 288, 292, 292, 354, 356, 399, 413, 413, 415, 415, 415, 415, 415, 428, 428, 510, 520, 520, 520, 528, 546, 546, 546, 554, 554, 570, 573, 573, 626, 626, 689, 689, 689, 689, 722, 762, 764, 764, 794, 794, 829, 855, 855, 855, 855, 856, 935, 942, 942, 942, 949, 967, 967, 967, 967, 967, 967, 967, 967, 967, 967, 972, 972, 986, 1023, 1050, 1051, 1057, 1057, 1059, 1061, 1067, 1069, 1083, 1099, 1099, 1099, 1099, 1111, 1112, 1114, 1118, 1164, 1216, 1219, 1219, 1219, 1219, 1250, 1250, 1250, 1250, 1301, 1325, 1343, 1370, 1415, 1415, 1415, 1415, 1415, 1415, 1416, 1416, 1416, 1425, 1428, 1428, 1428]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.34, 0.34, 0.333, 0.335, 0.331, 0.329, 0.329, 0.31, 0.327]</t>
+          <t>[0.34, 0.34, 0.333, 0.335, 0.331, 0.329, 0.329, 0.31, 0.327, 0.325, 0.321, 0.321, 0.325, 0.327, 0.327, 0.331, 0.336, 0.331, 0.329, 0.333, 0.338, 0.333, 0.342, 0.335, 0.331, 0.336, 0.336, 0.365, 0.361, 0.368, 0.363, 0.365, 0.367, 0.363, 0.363, 0.372, 0.365, 0.368, 0.37, 0.363, 0.372, 0.368, 0.374, 0.374, 0.374, 0.376, 0.383, 0.376, 0.383, 0.382, 0.395, 0.391, 0.393, 0.408, 0.412, 0.398, 0.404, 0.398, 0.415, 0.432, 0.429, 0.442, 0.444, 0.436, 0.423, 0.438, 0.436, 0.442, 0.44, 0.438, 0.444, 0.436, 0.434, 0.434, 0.438, 0.447, 0.444, 0.44, 0.451, 0.457, 0.451, 0.449, 0.451, 0.466, 0.474, 0.466, 0.468, 0.481, 0.477, 0.474, 0.477, 0.472, 0.483, 0.472, 0.468, 0.477, 0.476, 0.476, 0.476, 0.474, 0.487, 0.481, 0.487, 0.477, 0.487, 0.474, 0.477, 0.481, 0.485, 0.491, 0.489, 0.485, 0.494, 0.496, 0.494, 0.492, 0.496, 0.492, 0.491, 0.5, 0.492]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0, 40.470269441604685, 59.86532406806954, 94.80783207416545, 119.17488584518442, 167.88811426162724, 200.82973594665526, 235.59843702316283, 260.8758570194244]</t>
+          <t>[0, 40.470269441604685, 59.86532406806954, 94.80783207416545, 119.17488584518442, 167.88811426162724, 200.82973594665526, 235.59843702316283, 260.8758570194244, 261.2955570220947, 301.20120668411255, 310.0185050010681, 328.8864054918289, 373.16894214153285, 428.47678964138026, 461.54877021312706, 506.11609799265847, 544.1286246120928, 597.5871401369569, 643.6128970921038, 692.7813845932483, 724.2064601004123, 770.2054488718509, 818.879184681177, 870.9100612223145, 902.6343100607393, 938.5256035268304, 980.0796931684015, 1014.6945492446421, 1024.139747303724, 1040.494997423887, 1051.344258671999, 1080.3130345404147, 1124.7985703766344, 1180.1064178764818, 1208.1889614164827, 1264.7268353044983, 1294.565193635225, 1340.0773386299604, 1383.6285925447935, 1403.6020065486425, 1452.1663298785681, 1500.9033041179175, 1548.4879250943654, 1600.1816137254232, 1648.8812505662434, 1680.7201661050312, 1716.7455672204487, 1747.5669053018084, 1747.9866053044786, 1791.647988075017, 1804.9462604701512, 1840.5087530791752, 1880.2115940034382, 1901.3498681485646, 1947.5445496022694, 2001.413937085866, 2045.5017135083667, 2094.9592586219305, 2125.760674089193, 2138.4554468691344, 2150.420223742723, 2154.2274373352525, 2201.778622418642, 2236.1890640079973, 2280.5994675457478, 2344.988855153322, 2395.850966626406, 2430.9248045265676, 2482.3614029705523, 2495.9024939358233, 2548.604511767626, 2576.7610386431215, 2596.2442626059055, 2628.8472969353197, 2683.1762444794176, 2705.0217465937135, 2757.3442218363284, 2787.312665706873, 2812.0133564054963, 2888.3788188159465, 2926.3288832366466, 2957.1685365378853, 3005.7022700488565, 3049.8684375464914, 3105.1762850463388, 3115.457285434007, 3168.8402309715743, 3194.43075094819, 3194.43075094819, 3213.7465504229062, 3241.9513427793972, 3271.7778436481944, 3314.239566165208, 3356.5461055576793, 3406.959453278779, 3421.2139536678783, 3477.431391888856, 3500.5106637299054, 3500.5106637299054, 3517.801830106973, 3550.8702512562268, 3595.598635631799, 3639.5638648569575, 3688.5512543737877, 3730.3946156799784, 3747.79014571309, 3773.680688720941, 3810.61150997281, 3839.41936405301, 3850.4654716908926, 3899.0297950208183, 3935.2360528409477, 3983.2063873708244, 4034.878909772634, 4085.2228341042987, 4121.417830461263, 4158.699931615591, 4191.220912593602, 4191.640612596273, 4235.215793842077]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>[0, 1.07, 14.75, 18.99, 21.1, 23.03, 25.26, 57.06, 71.42]</t>
+          <t>[0, 1.07, 14.75, 18.99, 21.1, 23.03, 25.26, 57.06, 71.42, 81.19, 100.82, 117.77, 127.38, 135.5, 141.6, 163.84, 174.88, 193.01, 207.86, 219.28, 228.64, 241.65, 249.53, 260.85, 270.03, 291.04, 305.15, 333.22, 350.49, 367.77, 382.05, 397.28, 415.18, 429.58, 442.48, 459.25, 476.39, 492.72, 506.77, 516.93, 543.7, 557.34, 587.21, 601.11, 617.21, 634.07, 662.41, 687.31, 706.89, 726.47, 748.02, 767.81, 794.68, 818.2, 841.73, 860.62, 882.7, 903.97, 935.58, 958.9, 982.85, 1005.56, 1031.05, 1058.51, 1082.15, 1104.25, 1125.88, 1147.18, 1171.64, 1191.47, 1215.57, 1239.98, 1263.57, 1284.87, 1311.79, 1337.1, 1373.5, 1401.82, 1426.46, 1449.76, 1475.58, 1501.01, 1521.49, 1546.38, 1568.31, 1598.76, 1626.58, 1655.54, 1680.24, 1706.52, 1732.92, 1758.0, 1786.07, 1813.31, 1847.06, 1885.03, 1912.89, 1940.11, 1967.11, 1994.12, 2028.81, 2059.23, 2087.2, 2117.1, 2149.83, 2179.46, 2207.82, 2240.16, 2276.75, 2305.9, 2333.5, 2355.96, 2384.17, 2414.13, 2442.08, 2465.82, 2497.93, 2531.18, 2547.72, 2572.07, 2592.28]</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[0, -10, -10, -20, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -20, -10, -10, -10, -20, -20, -20, -20, -20, -20, -20, -20, -10, -20, -20, -20, -20, -20, -20, -20, -10, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -20, 0, 0, 0, 0, -20, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -20]</t>
+          <t>[-10, 0, 0, -10, 0, 0, 0, 0, -20, 0, 0, -20, 0, 0, -10, -20, -20, 0, 0, -20, -20, 0, -20, -10, 0, -20, 0, -20, 0, -20, -10, 0, -20, 0, 0, -10, 0, 0, -20, -20, 0, 0, 0, -10, -20, 0, -20, 0, -20, -10, 0, -10, -10, 0, -10, 0, 0, 0, 0, -20, 0, 0, -10, -20, 0, 0, -20, -10, -10, -20, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, -10]</t>
         </is>
       </c>
     </row>
@@ -1820,191 +1820,691 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[81, 81, 81, 81, 81, 106, 175, 241, 276, 276, 316, 316, 317, 334, 334, 334, 334, 334, 424, 424, 424, 424, 424, 424, 424, 424, 424, 449, 453, 453, 485, 492, 503, 505, 555, 670, 739, 739, 739, 739, 745, 761, 780, 784, 784, 855, 855, 864, 864, 864, 916, 916, 963, 990, 990, 990, 990, 990, 990, 990, 990, 992, 994, 994, 994, 1034, 1047, 1051, 1051, 1051, 1051, 1052, 1054, 1054, 1054, 1075, 1075, 1097, 1149, 1149, 1150, 1153, 1156, 1158, 1227, 1268, 1268, 1268, 1268, 1268, 1268, 1271, 1281, 1284, 1325, 1341, 1341, 1341, 1341, 1341, 1406, 1413, 1418, 1419, 1419, 1426, 1426, 1437, 1437, 1437, 1437, 1438, 1439, 1439, 1443, 1462, 1462, 1462, 1462, 1462, 1462]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[0.338, 0.338, 0.338, 0.338, 0.338, 0.305, 0.289, 0.282, 0.291, 0.291, 0.297, 0.297, 0.299, 0.305, 0.305, 0.305, 0.305, 0.305, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.321, 0.329, 0.346, 0.359, 0.367, 0.361, 0.372, 0.367, 0.367, 0.367, 0.367, 0.367, 0.372, 0.382, 0.385, 0.385, 0.393, 0.393, 0.398, 0.398, 0.398, 0.404, 0.404, 0.421, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.423, 0.444, 0.444, 0.444, 0.444, 0.444, 0.444, 0.444, 0.449, 0.449, 0.449, 0.451, 0.451, 0.474, 0.492, 0.492, 0.492, 0.492, 0.498, 0.498, 0.496, 0.506, 0.506, 0.506, 0.506, 0.506, 0.506, 0.506, 0.506, 0.509, 0.509, 0.509, 0.509, 0.509, 0.509, 0.509, 0.517, 0.517, 0.517, 0.521, 0.521, 0.519, 0.519, 0.519, 0.519, 0.519, 0.519, 0.519, 0.519, 0.519, 0.521, 0.519, 0.519, 0.519, 0.519, 0.519, 0.519]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[0, 44.18675611019132, 82.10085628032681, 109.7212834835052, 150.76391069889067, 191.63795783519743, 231.18632895946496, 268.0495301008224, 302.0007555007933, 302.4204555034636, 347.59412288665754, 404.9623586177824, 425.4901720225809, 469.7841670930384, 492.8798086345194, 541.9861428439616, 603.1839302718637, 645.3394500434396, 697.191279619932, 728.8044594705102, 742.1037649095056, 794.9281166017054, 833.5253537118433, 883.3290056169031, 935.5033694922921, 986.2411536872384, 1025.6896328628059, 1065.904034107923, 1089.8791765034193, 1090.2988765060895, 1129.6903320610518, 1157.3398465454572, 1192.6360151112074, 1241.054426079988, 1286.1504076302047, 1342.4371550858016, 1363.3996556580062, 1414.9652990639204, 1444.2023140966887, 1444.2023140966887, 1466.0220135033126, 1498.2504536569113, 1539.5599999845022, 1585.1643408715718, 1638.5143884599202, 1676.7973023831837, 1729.6416138172142, 1753.3186692357056, 1803.0302414774885, 1847.0763960003844, 1862.5522159814827, 1873.5002417564385, 1916.6461539268487, 1963.223598480224, 1984.8677876472466, 2033.057803964614, 2106.379794692992, 2152.3156653881065, 2204.055728197097, 2270.7486679553977, 2281.3880965709677, 2314.02387933731, 2339.2656531810753, 2376.818728542327, 2433.5949259757986, 2480.5820682525627, 2496.403169947862, 2516.854438966512, 2560.327578634023, 2604.621182602644, 2629.3087266147136, 2677.7381986320015, 2690.971229499578, 2731.123595207929, 2781.192455643415, 2815.703303879499, 2830.5507900774473, 2860.8495213806623, 2903.894903761148, 2943.680002278089, 2952.4148870050903, 2985.433847528696, 3020.96794000268, 3065.49170666337, 3113.8420373976232, 3157.8925354063513, 3175.1656358778478, 3224.465166050196, 3249.407180339098, 3249.407180339098, 3271.008279556036, 3302.801402229071, 3335.931098431349, 3366.4586838424207, 3409.695037287474, 3462.5556348979476, 3482.0088354289533, 3539.1711045444013, 3555.1258473575117, 3555.1258473575117, 3570.589548957348, 3605.865435051918, 3610.486994767189, 3656.27274992466, 3709.1333475351335, 3746.5079649209974, 3793.4280122876166, 3825.6765830278396, 3863.296184325218, 3905.362735557556, 3925.5539304494855, 3967.4482105493544, 3997.4159648418427, 4043.837366867065, 4081.9597430229187, 4138.73594045639, 4158.249441814422, 4214.939295482635, 4240.522049307823, 4240.522049307823, 4259.173702299595]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[0, 0.03, 0.06, 0.08, 0.15, 0.18, 0.25, 0.31, 0.36, 0.42, 0.51, 0.57, 0.62, 0.71, 0.77, 0.84, 0.9, 0.98, 1.07, 1.15, 1.23, 1.4, 1.5, 1.59, 1.67, 1.76, 1.89, 1.96, 2.05, 2.15, 2.24, 2.34, 2.43, 2.61, 2.74, 2.93, 3.23, 3.41, 3.56, 3.78, 3.95, 4.19, 4.38, 4.58, 4.81, 4.97, 5.14, 5.31, 5.52, 5.82, 6.01, 6.3, 6.5, 6.74, 6.95, 7.42, 7.64, 7.87, 8.11, 8.34, 8.55, 8.78, 9.02, 9.24, 9.49, 9.76, 10.0, 10.24, 10.86, 11.09, 11.35, 11.62, 11.85, 12.13, 12.39, 12.63, 12.87, 13.14, 13.44, 13.74, 14.02, 14.31, 14.64, 14.95, 15.26, 15.59, 15.91, 16.23, 16.51, 16.84, 17.14, 17.59, 17.94, 18.23, 18.59, 18.95, 19.31, 19.68, 20.01, 20.3, 20.68, 21.1, 21.43, 22.64, 22.98, 23.38, 23.76, 24.15, 24.52, 24.95, 25.31, 25.71, 26.07, 26.48, 27.77, 28.19, 28.57, 29.02, 29.39, 29.78, 30.16]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, -20, 0, 0, -20, 0, 0, 0, 0, -20, 0, 0, -20, 0, -20, 0, -20, -20, -20, -20, -10, 0, -10, -10, -20, 0, 0, 0, -20, 0, -10, 0, 0, -20, -10, -10, 0, -10, -20, 0, 0, 0, 0, -10, 0, 0, -10, -10, -10, -20, -10, -20, 0, -20, 0, -10, 0, 0, -10, 0, 0, 0, -10, -10, 0, -20, 0, 0, -10, 0, 0, -10, -20, -20, -20, 0, -10, -10, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>redistrict</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[81, 81, 81, 81, 81, 94, 141, 208, 233, 233, 269, 269, 269, 302, 302, 302, 302, 302, 386, 386, 386, 386, 404, 446, 446, 562, 589, 589, 589, 589, 611, 631, 671, 684, 728, 796, 855, 855, 855, 855, 881, 881, 881]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[0.338, 0.338, 0.338, 0.338, 0.338, 0.31, 0.31, 0.297, 0.305, 0.305, 0.301, 0.301, 0.301, 0.314, 0.314, 0.314, 0.314, 0.314, 0.331, 0.331, 0.331, 0.331, 0.359, 0.367, 0.367, 0.368, 0.367, 0.367, 0.367, 0.367, 0.367, 0.38, 0.378, 0.383, 0.404, 0.402, 0.4, 0.4, 0.4, 0.4, 0.4, 0.4, 0.4]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[0, 49.84233183860789, 87.07329506874095, 135.38877646923072, 188.0529929637909, 240.6015834331512, 280.25718193054195, 317.9581830978393, 350.07301421165454, 350.49271421432485, 396.50579171180715, 409.1705704927444, 410.5982755899429, 448.58906309604646, 488.91738269329073, 534.7451508760453, 607.1431417226789, 649.5086684465406, 702.1162220478055, 743.0840205192562, 758.1493994712827, 804.286224031448, 845.0650768041608, 877.3667222380634, 924.3223318934438, 979.6301793932912, 1002.9436345458028, 1063.4128117918965, 1090.6718609929083, 1090.6718609929083, 1112.3127104043958, 1155.9258930206297, 1189.2103794813154, 1239.057099127769, 1286.9425228357313, 1340.7820204019545, 1360.0262995839116, 1413.654042613506, 1442.6557261824603, 1442.6557261824603, 1460.626031684875, 1486.1722592473025, 1521.5123855471606]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[0, 0.0, 0.0, 0.0, 0.0, 0.25, 0.5, 0.93, 1.37, 1.37, 1.88, 1.88, 1.88, 2.68, 2.68, 2.68, 2.68, 2.68, 3.49, 3.49, 3.49, 3.49, 4.25, 5.34, 5.34, 6.87, 8.36, 8.36, 8.36, 8.36, 9.82, 11.4, 13.28, 15.03, 17.09, 19.33, 21.88, 21.88, 21.88, 21.88, 24.41, 24.41, 24.41]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[-20, -20, -20, 0, -20, 0, -10, -20, 0, 0, 0, -20, -20, 0, 0, 0, -10, 0, 0, -20, -10, 0, -20, -10, -10, 0, -10, 0, 0, -10, 0, 0, 0, -20, 0, 0, 0, 0, -20, 0, -10, -10, -10, -10, 0, -20, -10, 0, 0, 0, -20, 0, 0, -20, 0, -20, -20, 0, 0, -10, 0, -20, -10, -10, 0, 0, -20, -20, 0, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, 0, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classWt</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CBCLPR</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[100, 131, 158, 158, 158, 213, 226, 226, 229, 229, 283, 294, 305, 305, 397, 495, 527, 527, 527, 527, 542, 542, 543, 543, 557, 568, 568, 618, 664, 664, 665, 665, 669, 678, 678, 687, 687, 688, 735, 797, 817, 825, 874, 876, 876, 961, 961, 972, 982, 982, 983, 990, 1015, 1015, 1015, 1068, 1070, 1072, 1079, 1079, 1119, 1168, 1230, 1303, 1303, 1363, 1363, 1365, 1376, 1376, 1415, 1415, 1415, 1415, 1415, 1415, 1415, 1448, 1478, 1478, 1478, 1558, 1558, 1624, 1626, 1704, 1825, 1921, 1943, 1958, 1982, 2001, 2005, 2005, 2055, 2140, 2155, 2155, 2155, 2155, 2214, 2224, 2224, 2224, 2224, 2224, 2229, 2315, 2423, 2423, 2471, 2489, 2540, 2540, 2540, 2586, 2595, 2608, 2633, 2633, 2686, 2686, 2686, 2688, 2691, 2756, 2759, 2838, 2906, 2906, 2906, 2991, 2991, 3060, 3067, 3149, 3248, 3348, 3350, 3358, 3369, 3371, 3384, 3461, 3461, 3550, 3550, 3564, 3566, 3566, 3571, 3587, 3587, 3587, 3587, 3587, 3587, 3679, 3790, 3790, 3821, 3828, 3828, 3840, 3849, 3849, 3849, 3882, 3970, 3970, 3970, 4055, 4055, 4072, 4073, 4158, 4210, 4315, 4316, 4333, 4344, 4368, 4408, 4475, 4475, 4543, 4543, 4549, 4552, 4552, 4606, 4633, 4643, 4671, 4674, 4725, 4733, 4733, 4733, 4733, 4785, 4795, 4795, 4795, 4795, 4830, 4834, 4912, 5014, 5014, 5054, 5058, 5060, 5097, 5153, 5188, 5231, 5231, 5231, 5231, 5268, 5268, 5268, 5269, 5269, 5275, 5275, 5308, 5312, 5312, 5312, 5360, 5360, 5360, 5360, 5360, 5361, 5450, 5564, 5564, 5611]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[0.176, 0.152, 0.148, 0.148, 0.148, 0.141, 0.144, 0.143, 0.144, 0.145, 0.148, 0.158, 0.164, 0.163, 0.165, 0.172, 0.169, 0.17, 0.171, 0.17, 0.174, 0.174, 0.177, 0.178, 0.182, 0.186, 0.188, 0.193, 0.202, 0.202, 0.2, 0.201, 0.204, 0.211, 0.208, 0.21, 0.21, 0.212, 0.218, 0.215, 0.223, 0.224, 0.221, 0.222, 0.22, 0.222, 0.224, 0.228, 0.227, 0.228, 0.228, 0.228, 0.23, 0.229, 0.23, 0.229, 0.232, 0.232, 0.232, 0.233, 0.231, 0.238, 0.241, 0.238, 0.238, 0.235, 0.237, 0.236, 0.238, 0.236, 0.241, 0.24, 0.244, 0.24, 0.24, 0.242, 0.242, 0.256, 0.253, 0.258, 0.258, 0.259, 0.259, 0.258, 0.257, 0.253, 0.25, 0.258, 0.26, 0.262, 0.264, 0.263, 0.264, 0.263, 0.265, 0.266, 0.268, 0.265, 0.265, 0.268, 0.265, 0.272, 0.273, 0.274, 0.274, 0.274, 0.271, 0.282, 0.29, 0.287, 0.291, 0.292, 0.293, 0.29, 0.29, 0.293, 0.297, 0.296, 0.298, 0.297, 0.301, 0.298, 0.3, 0.299, 0.3, 0.297, 0.297, 0.306, 0.308, 0.307, 0.306, 0.31, 0.308, 0.307, 0.308, 0.309, 0.308, 0.308, 0.31, 0.31, 0.306, 0.31, 0.312, 0.31, 0.309, 0.312, 0.308, 0.312, 0.311, 0.309, 0.312, 0.312, 0.311, 0.313, 0.311, 0.308, 0.31, 0.309, 0.314, 0.31, 0.311, 0.313, 0.31, 0.313, 0.314, 0.313, 0.313, 0.316, 0.313, 0.316, 0.314, 0.314, 0.314, 0.317, 0.316, 0.317, 0.312, 0.316, 0.314, 0.311, 0.314, 0.312, 0.313, 0.314, 0.313, 0.312, 0.313, 0.314, 0.313, 0.313, 0.315, 0.314, 0.316, 0.326, 0.327, 0.328, 0.328, 0.33, 0.329, 0.327, 0.328, 0.328, 0.327, 0.326, 0.327, 0.324, 0.328, 0.325, 0.327, 0.328, 0.328, 0.328, 0.327, 0.33, 0.332, 0.332, 0.336, 0.334, 0.332, 0.332, 0.333, 0.332, 0.33, 0.331, 0.334, 0.33, 0.334, 0.335, 0.333, 0.333, 0.332, 0.332, 0.334, 0.331, 0.33, 0.332, 0.333, 0.335, 0.333, 0.331, 0.334]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[0, 14.21443200111385, 68.67130761146531, 102.27249763011918, 159.04869506359086, 188.42021203041065, 213.70519757270796, 247.6153278350828, 298.4747007608411, 342.27340497970556, 361.5718179464338, 409.37658121585815, 440.1087003946301, 465.98895504474615, 510.620029568672, 558.586127400398, 577.5362279176709, 625.4060156106946, 652.037062501907, 652.037062501907, 670.6374619960782, 704.8865035057065, 749.241424155235, 794.3152584314344, 845.8070920705792, 895.8335993289944, 908.9781983613964, 934.0464140772815, 975.3439972758289, 988.0950146555896, 998.7560682415958, 1010.9595462918278, 1037.3478297352788, 1072.8597279906269, 1098.0731930375096, 1145.79069186449, 1218.650682651996, 1269.5063456177706, 1317.5300762772556, 1352.260349309444, 1366.0666527628896, 1389.820049881935, 1410.5883997917174, 1451.269666290283, 1506.5775137901305, 1543.5783131837843, 1582.0330964446066, 1605.2161193370819, 1652.8210964202879, 1697.3621506929396, 1745.205658006668, 1778.870484673977, 1825.3026673674583, 1865.998643195629, 1921.7959406733512, 1951.8659695267677, 1998.4798568189142, 2025.8650934755801, 2070.4184440672398, 2114.2171474277975, 2135.7591079533104, 2161.4393223881725, 2209.4435821890834, 2236.4327379584315, 2290.7616855025294, 2312.8234436392786, 2368.1166034817697, 2398.1787916302683, 2437.3173246741294, 2474.434870684147, 2498.7260907292366, 2535.9793777585032, 2573.7372970700267, 2620.1357802510265, 2665.6324983716013, 2700.7722219586376, 2715.971410429478, 2754.6893336415296, 2794.791073405743, 2811.792429912091, 2837.6432594597345, 2880.6524252712734, 2885.9835998952394, 2899.1292295157914, 2928.1195402443414, 2966.2966385185723, 2986.5360880911353, 3033.0449549734594, 3065.057748919726, 3097.6055067002776, 3131.1167381823066, 3172.4808112204078, 3205.024486666918, 3241.1693003714086, 3288.1249100267887, 3329.728158146143, 3345.491958576441, 3395.0952673494817, 3420.231954485178, 3420.231954485178, 3442.945903867483, 3484.6487561643125, 3509.316738831997, 3555.133964312077, 3591.5116457104687, 3644.0255667805673, 3681.4406191945077, 3717.466020309925, 3748.5405483841896, 3748.96024838686, 3788.850497114658, 3801.393467056751, 3844.2570049881933, 3891.8390651822087, 3942.7418628811834, 3969.751466095447, 3992.931104332208, 4017.186796253919, 4059.876384800672, 4099.715883296728, 4116.734530228377, 4149.509859699011, 4184.626140516996, 4233.1375863492485, 4284.589532846212, 4330.243241208791, 4342.86983385682, 4367.28685979247, 4405.483884972333, 4410.206484001874, 4415.578750127553, 4459.963077157735, 4486.509081119298, 4504.789696526526, 4534.7681915163985, 4574.903089702128, 4591.5122395157805, 4639.919260704516, 4666.252715957164, 4683.811089956759, 4709.7022279858575, 4740.300709593294, 4750.80438300371, 4774.640610373019, 4824.075058138369, 4862.364175307749, 4913.754072409866, 4942.119314414261, 4981.966927319763, 5023.538578802345, 5064.828343540428, 5106.153906804321, 5139.28604839444, 5184.875922995804, 5233.296111065148, 5278.013345485924, 5312.988285785912, 5351.527086979149, 5380.674286204575, 5381.0939862072455, 5421.914439946412, 5457.904486256837, 5461.512136560677, 5505.279896980523, 5557.102712303398, 5592.98567240834, 5607.753284889457, 5649.259034496543, 5689.153390556571, 5703.321187645194, 5714.077087813613, 5760.3640007317035, 5783.542934495207, 5802.254223924871, 5840.686956185099, 5882.290204304453, 5902.595731681582, 5953.837658685443, 5983.296532267329, 6010.50272414088, 6031.484733158347, 6044.67033537626, 6082.626471507546, 6106.025225675103, 6159.375273263451, 6186.609218108651, 6224.61011702418, 6252.60862292647, 6290.545528453585, 6329.642676895853, 6349.451477891203, 6377.6551481306515, 6412.248779088255, 6448.348755186793, 6496.6990859210455, 6543.196833819147, 6560.302234286066, 6609.905856245752, 6635.046386307474, 6635.046386307474, 6657.581485694643, 6700.492142289872, 6716.322621762748, 6763.052821886535, 6816.7477807402565, 6868.537928616996, 6898.4347874999, 6931.108988511558, 6957.79114888906, 6958.210848891731, 6996.995072019096, 7033.018862044807, 7065.000163948532, 7094.693071138855, 7138.394331610199, 7173.145280039306, 7188.070580446716, 7239.091448748108, 7263.334237039086, 7263.334237039086, 7283.723136484619, 7323.30280319452, 7363.8724824547735, 7412.30690809488, 7457.886850702759, 7488.78577109575, 7502.8214594364135, 7530.419623255727, 7564.682756018636, 7603.263799560067, 7613.547762119767, 7655.672800600526, 7687.4386683106395, 7739.168599593637, 7786.082017576692, 7831.217949736116, 7869.039687502382, 7906.321788656709, 7936.25578356981, 7936.6754835724805, 7976.571109068391]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[0, 5.14, 11.35, 13.77, 16.18, 27.34, 33.88, 37.21, 41.14, 44.75, 57.94, 63.08, 69.91, 74.55, 91.48, 112.83, 122.32, 128.9, 133.19, 138.0, 146.86, 154.53, 160.44, 168.39, 174.62, 182.07, 187.97, 203.35, 218.13, 223.3, 228.99, 237.87, 244.94, 253.62, 260.36, 269.2, 276.34, 287.47, 307.18, 321.02, 328.68, 338.41, 360.69, 369.89, 377.69, 406.1, 418.02, 426.64, 437.99, 449.15, 460.14, 470.45, 481.37, 494.59, 505.91, 526.43, 536.77, 548.15, 558.11, 567.39, 583.78, 606.39, 624.33, 650.01, 662.96, 686.42, 699.31, 711.06, 721.63, 735.05, 750.44, 762.49, 776.12, 788.01, 801.63, 815.11, 826.06, 840.23, 854.95, 867.98, 881.66, 901.48, 915.13, 935.77, 950.59, 972.83, 1010.66, 1037.98, 1055.68, 1074.67, 1093.36, 1115.48, 1130.35, 1148.3, 1176.61, 1214.54, 1233.8, 1248.54, 1262.7, 1285.57, 1311.71, 1331.03, 1347.28, 1367.67, 1390.61, 1407.07, 1427.07, 1457.17, 1482.37, 1496.23, 1517.85, 1535.29, 1561.59, 1577.99, 1596.58, 1623.73, 1650.91, 1672.3, 1696.92, 1714.12, 1740.13, 1757.3, 1778.61, 1805.66, 1828.61, 1857.44, 1873.81, 1898.76, 1925.78, 1943.9, 1958.94, 1985.13, 2008.81, 2039.28, 2058.14, 2087.48, 2128.63, 2158.85, 2175.45, 2197.2, 2218.26, 2237.19, 2258.83, 2296.26, 2319.94, 2349.96, 2369.75, 2391.98, 2413.09, 2433.55, 2451.3, 2474.09, 2488.84, 2505.12, 2524.79, 2544.19, 2565.24, 2597.3, 2632.49, 2650.52, 2675.02, 2693.97, 2714.63, 2741.34, 2769.28, 2789.27, 2809.48, 2833.45, 2864.99, 2883.24, 2904.62, 2932.31, 2948.46, 2975.94, 2998.67, 3035.32, 3066.52, 3102.86, 3121.55, 3143.6, 3165.03, 3188.29, 3208.58, 3248.21, 3273.85, 3306.25, 3327.03, 3347.17, 3365.98, 3389.76, 3420.7, 3444.1, 3469.22, 3500.53, 3525.44, 3559.34, 3585.34, 3608.15, 3637.94, 3662.47, 3698.96, 3727.19, 3751.43, 3776.97, 3800.31, 3829.47, 3851.21, 3882.25, 3914.15, 3932.57, 3970.0, 4001.44, 4028.38, 4061.62, 4093.72, 4119.85, 4154.89, 4176.47, 4201.82, 4226.3, 4257.57, 4285.22, 4311.55, 4334.18, 4358.92, 4381.58, 4407.4, 4437.55, 4460.54, 4482.68, 4505.0, 4537.76, 4561.22, 4584.38, 4606.47, 4635.06, 4665.35, 4704.88, 4753.57, 4777.19, 4809.15]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, -10, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -20, 0, -20, -20, 0, -10, 0, 0, 0, -20, 0, 0, -20, -20, -20, -10, 0, -20, -10, -20, -10, -20, 0, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, -20, 0, -20, -20, -20, 0, -20, -10, -10, -20, -10, 0, -10, -10, -10, 0, 0, -10, 0, -10, 0, 0, -20, 0, 0, 0, -10, -10, -10, -10, -10, -10, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>CBCLPR</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[100, 106, 181, 181, 181, 236, 236, 244, 249, 249, 313, 322, 334, 418, 421, 515, 559, 559, 559, 559, 583, 593, 593, 593, 593, 634, 634, 726, 756, 756, 790, 867, 867, 889, 890, 982, 1062, 1178, 1280, 1283, 1296, 1390, 1390, 1450, 1455, 1548, 1662, 1764, 1774, 1818, 1821, 1839, 1877, 1877, 1881, 1881, 1881, 1975, 2102, 2102, 2157, 2180, 2186, 2196, 2298, 2390, 2426, 2426, 2426, 2426, 2435, 2435, 2436, 2443, 2526, 2528, 2528, 2564, 2667, 2667, 2667, 2710, 2716, 2716, 2719, 2816, 2891, 2891, 2891, 2891, 2928, 2928, 2928, 2965, 2965, 2967, 2967, 2975, 3036, 3036, 3036, 3049, 3056, 3057, 3108, 3202, 3255, 3255, 3255, 3255, 3298, 3298, 3298, 3298, 3298, 3404, 3404, 3451, 3531, 3531, 3531, 3542, 3546, 3555, 3559, 3650, 3694, 3694, 3694, 3694, 3698, 3736, 3755, 3755, 3845, 3943, 4002, 4002, 4002, 4002, 4108, 4108, 4180, 4232, 4234, 4234, 4234, 4234, 4236, 4236, 4239, 4243, 4345, 4447, 4447, 4495, 4495, 4525, 4581, 4581, 4625, 4625, 4627, 4680, 4680, 4680, 4680, 4680, 4737, 4737, 4745, 4757, 4757, 4757, 4757, 4761, 4761, 4849, 4963, 4963, 5024, 5056, 5074, 5182, 5182, 5251, 5286, 5300, 5308, 5308, 5369, 5398, 5400, 5400, 5403, 5444, 5475, 5475, 5475, 5475, 5489, 5492, 5492, 5492, 5492, 5516, 5548, 5621, 5701, 5701, 5747, 5747, 5753, 5785, 5785, 5785, 5785, 5785, 5793, 5805, 5805, 5810, 5817, 5837, 5925, 5967, 5997, 5997, 5997, 5997, 6051, 6133, 6133, 6175, 6176, 6224, 6333, 6434, 6515, 6530, 6533]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[0.176, 0.164, 0.145, 0.145, 0.144, 0.141, 0.14, 0.155, 0.152, 0.153, 0.158, 0.163, 0.169, 0.174, 0.178, 0.18, 0.182, 0.182, 0.182, 0.181, 0.191, 0.195, 0.196, 0.196, 0.194, 0.199, 0.201, 0.208, 0.217, 0.215, 0.224, 0.228, 0.23, 0.237, 0.234, 0.234, 0.23, 0.236, 0.236, 0.237, 0.239, 0.241, 0.238, 0.24, 0.24, 0.24, 0.239, 0.24, 0.237, 0.242, 0.242, 0.242, 0.249, 0.25, 0.252, 0.255, 0.252, 0.252, 0.256, 0.254, 0.26, 0.264, 0.266, 0.266, 0.261, 0.262, 0.264, 0.26, 0.26, 0.264, 0.26, 0.263, 0.26, 0.259, 0.27, 0.265, 0.265, 0.284, 0.278, 0.278, 0.281, 0.284, 0.284, 0.282, 0.286, 0.296, 0.295, 0.294, 0.294, 0.294, 0.296, 0.29, 0.295, 0.294, 0.292, 0.296, 0.295, 0.296, 0.297, 0.295, 0.295, 0.298, 0.293, 0.292, 0.297, 0.296, 0.298, 0.296, 0.296, 0.297, 0.298, 0.296, 0.295, 0.297, 0.296, 0.297, 0.294, 0.295, 0.298, 0.304, 0.304, 0.303, 0.304, 0.307, 0.307, 0.31, 0.306, 0.307, 0.306, 0.308, 0.306, 0.305, 0.309, 0.308, 0.307, 0.304, 0.305, 0.309, 0.309, 0.31, 0.308, 0.306, 0.311, 0.308, 0.31, 0.313, 0.312, 0.31, 0.315, 0.311, 0.311, 0.309, 0.311, 0.312, 0.312, 0.317, 0.31, 0.312, 0.32, 0.319, 0.324, 0.326, 0.326, 0.326, 0.325, 0.326, 0.328, 0.323, 0.328, 0.327, 0.33, 0.332, 0.333, 0.336, 0.335, 0.33, 0.335, 0.334, 0.332, 0.329, 0.342, 0.333, 0.342, 0.34, 0.34, 0.342, 0.348, 0.35, 0.354, 0.35, 0.353, 0.346, 0.349, 0.351, 0.354, 0.35, 0.352, 0.354, 0.354, 0.35, 0.351, 0.349, 0.35, 0.352, 0.348, 0.35, 0.348, 0.352, 0.351, 0.349, 0.35, 0.348, 0.353, 0.348, 0.348, 0.353, 0.342, 0.351, 0.351, 0.349, 0.351, 0.347, 0.347, 0.353, 0.353, 0.353, 0.348, 0.351, 0.351, 0.352, 0.354, 0.352, 0.352, 0.352, 0.349, 0.351, 0.353, 0.351, 0.35, 0.343, 0.35]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[0, 21.53714895248415, 72.40317392349237, 116.47844452857966, 157.59224267005914, 180.13223965167995, 220.91051299571978, 245.5228282451628, 292.56078655719733, 339.823795557022, 360.44985897541034, 405.8279376745222, 441.6982233524321, 478.672933745384, 529.8127066373823, 575.8210045576094, 591.9202049970625, 649.0821152925489, 679.5044291257856, 679.5044291257856, 698.0849276423452, 744.4210145831106, 765.6843449950217, 816.3256156563757, 882.4008502840993, 938.3086555838581, 978.5705054640766, 1017.1093066573139, 1057.9778065443033, 1058.3975065469735, 1089.9124038934701, 1130.6333637475961, 1157.4321867942804, 1181.8689314603798, 1219.4502706289284, 1264.479668593406, 1281.8177198886863, 1338.0159340381615, 1387.8886154413215, 1401.8701384782782, 1430.6947976171962, 1479.2701047480098, 1507.8003028213968, 1546.3382374823084, 1581.849869531392, 1627.3687174737443, 1646.10701586604, 1695.5226869285095, 1723.8530963361252, 1750.5186525166023, 1781.6980731308447, 1827.5647764265525, 1871.9375185191618, 1921.6842899978149, 1974.0626916348922, 2027.105414909123, 2063.3004112660874, 2102.6770124852646, 2136.2475920617567, 2136.667292064427, 2182.219105190037, 2216.4855656087384, 2249.28145970702, 2296.501897567509, 2345.3171353280527, 2390.3465332925302, 2410.911256951092, 2465.7114488303646, 2492.2094285666926, 2492.2094285666926, 2510.988678056, 2541.143704372643, 2584.777430969475, 2637.0253314793094, 2692.7242876350865, 2724.2001836359486, 2739.8711212337003, 2768.43512367606, 2816.8434913098795, 2860.2914023816566, 2871.8732637226562, 2902.2701984226683, 2941.6540850698925, 2994.804715210197, 3041.2954178392865, 3088.772065693138, 3111.4728507220725, 3167.6899410903434, 3195.812086290119, 3195.812086290119, 3216.3400855362397, 3257.223914986847, 3299.8019942104797, 3341.965041118858, 3391.3129700243453, 3424.9268749535063, 3440.070912259815, 3470.0296106040455, 3514.9188729822613, 3567.8119821131204, 3572.6369827568506, 3598.786874085662, 3632.789883619544, 3674.2606914579837, 3718.0471791088553, 3764.0554770290823, 3783.676377564666, 3844.1455548107597, 3872.8640400707695, 3872.8640400707695, 3894.504889482257, 3926.6543078839754, 3968.3842093408084, 4019.476709002254, 4072.9254484832263, 4124.6932853400685, 4140.071197897194, 4169.302388781307, 4212.1042691886405, 4262.63607880473, 4274.195676439998, 4318.576104134319, 4349.673357719181, 4396.2279490888095, 4444.113372796772, 4488.6533207833745, 4504.7558213174325, 4558.138445991276, 4587.2398924052695, 4587.2398924052695, 4592.311569970844, 4631.921662276981, 4673.614766091106, 4725.367582243678, 4773.25300595164, 4821.219103783366, 4839.69134045243, 4889.294962412117, 4914.972947216032, 4914.972947216032, 4931.938652098176, 4940.924574291704, 4975.189496624467, 5008.739919006822, 5039.366585505006, 5081.414708626267, 5151.382349741456, 5193.85159269571, 5235.974159204957, 5286.030356943604, 5300.062876832481, 5333.773053705689, 5381.961579525467, 5405.90264960527, 5454.358197414871, 5484.039503943916, 5540.819814276691, 5575.9952305674515, 5611.575585973259, 5655.374289333817, 5700.146766567226, 5710.970193767544, 5712.397898864742, 5746.123123621936, 5774.640227818485, 5822.824232459065, 5881.329174971576, 5931.412035584445, 5981.39456479549, 6027.561762118335, 6042.317295432086, 6088.735340166088, 6124.696111345287, 6172.67715606689, 6222.392537283893, 6272.425366997714, 6308.463542771335, 6345.326743912692, 6375.113287568088, 6375.532987570758, 6418.99043781757, 6445.326092010732, 6481.139215570684, 6508.988547092672, 6558.422994858022, 6589.362055808301, 6621.100236427779, 6642.635711169238, 6690.6255823135325, 6732.939584708209, 6752.427426600451, 6784.669638705249, 6804.70569992065, 6841.138957405085, 6887.1647530078835, 6927.2996511936135, 6940.9821765899605, 6990.585798549647, 7017.2131523609105, 7017.2131523609105, 7036.528951835627, 7076.309607267374, 7105.473772579426, 7149.295503693813, 7198.794349533313, 7248.95648313164, 7276.562115722888, 7307.141816669696, 7335.228990107768, 7335.648690110439, 7374.829387456172, 7385.862110549205, 7389.193422442668, 7434.208882647746, 7465.145959383242, 7506.2491883337425, 7571.351079994432, 7612.95549708008, 7652.766485148661, 7678.882475548975, 7690.851832741491, 7728.8289428889675, 7757.693897241346, 7803.1943565785805, 7845.9658029973425, 7887.079601138822, 7902.84340156912, 7942.207352799169, 7965.917860406629, 7965.917860406629, 7983.941667431585, 8026.950979584448, 8051.816608875983, 8066.882375198596, 8095.951241284602, 8140.491189271204, 8158.770489770167, 8207.701693469278, 8247.216122919313, 8273.770198923341, 8323.203106039755]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[0, 1.29, 11.9, 15.28, 18.65, 29.72, 34.03, 39.43, 44.35, 49.32, 64.82, 69.79, 77.97, 95.09, 102.87, 123.86, 137.68, 144.81, 151.76, 159.76, 171.21, 180.84, 189.74, 198.49, 206.72, 221.63, 230.23, 258.18, 267.27, 276.6, 288.52, 306.02, 315.32, 333.02, 343.09, 369.6, 396.93, 431.55, 458.78, 473.81, 489.84, 518.68, 531.81, 555.98, 569.42, 597.1, 628.83, 652.97, 666.54, 689.05, 704.48, 716.72, 736.63, 749.26, 766.53, 781.87, 797.96, 831.08, 867.38, 881.89, 905.09, 925.19, 945.82, 965.47, 994.48, 1025.06, 1044.96, 1065.42, 1079.27, 1095.34, 1111.7, 1128.09, 1142.93, 1158.18, 1190.56, 1208.22, 1224.25, 1245.08, 1290.57, 1309.49, 1326.18, 1352.49, 1373.86, 1393.72, 1411.81, 1449.66, 1479.6, 1498.06, 1517.4, 1537.2, 1561.38, 1581.05, 1597.31, 1621.16, 1639.7, 1657.1, 1676.46, 1696.55, 1724.84, 1742.71, 1763.54, 1785.34, 1803.58, 1823.86, 1850.92, 1885.39, 1912.35, 1931.85, 1953.3, 1971.25, 1997.82, 2019.4, 2039.76, 2058.5, 2077.12, 2113.58, 2133.93, 2167.07, 2202.97, 2226.54, 2245.98, 2270.17, 2291.37, 2314.68, 2333.02, 2378.22, 2406.89, 2431.08, 2452.64, 2470.1, 2489.75, 2518.89, 2543.81, 2564.36, 2598.98, 2636.91, 2664.38, 2686.51, 2708.46, 2734.83, 2775.55, 2793.56, 2827.44, 2855.34, 2877.59, 2898.97, 2922.05, 2945.83, 2969.81, 2993.39, 3017.02, 3036.95, 3081.26, 3120.96, 3143.4, 3176.4, 3197.33, 3223.17, 3259.25, 3281.88, 3314.03, 3339.98, 3366.32, 3397.9, 3422.74, 3444.93, 3469.98, 3490.78, 3525.99, 3551.18, 3573.88, 3599.16, 3625.79, 3655.81, 3678.76, 3705.41, 3730.52, 3771.14, 3809.99, 3839.88, 3883.38, 3912.36, 3941.96, 3989.7, 4014.22, 4043.82, 4072.97, 4098.92, 4120.6, 4141.09, 4173.22, 4199.13, 4217.93, 4237.59, 4257.76, 4294.42, 4317.17, 4336.09, 4357.86, 4380.25, 4405.07, 4421.17, 4438.38, 4459.56, 4485.46, 4514.38, 4534.91, 4562.07, 4589.49, 4607.72, 4631.24, 4656.35, 4687.11, 4717.91, 4738.27, 4764.79, 4792.79, 4820.26, 4843.27, 4870.4, 4890.15, 4917.8, 4948.31, 4979.7, 5013.52, 5043.47, 5069.64, 5094.34, 5113.72, 5133.52, 5160.17, 5193.1, 5216.86, 5251.52, 5281.22, 5309.88, 5349.75, 5384.43, 5414.66, 5437.45, 5465.55]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[-10, -10, -20, 0, 0, 0, 0, -20, 0, -10, -10, -10, 0, -10, -20, 0, -20, 0, 0, 0, 0, 0, -10, -20, -20, -20, -10, -20, -10, 0, -10, -10, 0, -10, 0, 0, -10, 0, -20, 0, 0, 0, -10, 0, -20, 0, 0, -20, 0, 0, -20, -10, 0, -20, 0, -20, -20, -20, -20, 0, 0, 0, 0, 0, 0, 0, 0, -10, -20, 0, 0, -10, 0, 0, -20, 0, 0, -20, 0, -20, 0, 0, 0, -10, -20, -10, -20, -10, 0, -20, 0, 0, 0, -10, 0, -20, -10, -10, -10, -10]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>clusterWt</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CBCLPR</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[100, 103, 220, 314, 314, 381, 381, 382, 387, 387, 441, 443, 541, 600, 600, 633, 633, 658, 662, 662, 667, 724, 724, 724, 724, 724, 747, 813, 851, 851, 901, 930, 932, 951, 1047, 1141, 1189, 1189, 1189, 1189, 1236, 1324, 1324, 1361, 1362, 1463, 1575, 1690, 1742, 1767, 1773, 1864, 1864, 1864, 1864, 1915, 1950, 2042, 2168, 2168, 2218, 2225, 2232, 2246, 2339, 2441, 2451, 2451, 2451, 2451, 2495, 2497, 2515, 2538, 2538, 2620, 2620, 2632, 2658, 2658, 2706, 2795, 2795, 2882, 2888, 2985, 3078, 3162, 3163, 3166, 3171, 3260, 3260, 3307, 3313, 3394, 3492, 3591, 3592, 3607, 3624, 3664, 3664, 3664, 3697, 3727, 3734, 3815, 3923, 3923, 3942, 4021, 4021, 4094, 4095, 4195, 4305, 4366, 4371, 4384, 4394, 4405, 4405, 4405, 4405, 4405, 4405, 4481, 4588, 4588, 4596, 4665, 4665, 4665, 4665, 4665, 4712, 4792, 4898, 4898, 4952, 4958, 4960, 5021, 5024, 5102, 5132, 5132, 5132, 5132, 5162, 5162, 5233, 5286, 5286, 5301, 5301, 5320, 5401, 5405, 5405, 5405, 5409, 5424, 5424, 5424, 5424, 5424, 5477, 5477, 5479, 5481, 5489, 5489, 5489, 5557, 5560, 5560, 5562, 5562, 5564, 5642, 5642, 5691, 5691, 5731, 5826, 5921, 5922, 5935, 5953, 5953, 5956, 5956, 5956, 6004, 6004, 6004, 6016, 6099, 6099, 6106, 6106, 6106, 6106, 6112, 6164, 6237, 6281, 6281, 6296, 6296, 6296, 6300, 6352, 6396, 6426, 6474, 6478, 6511, 6561, 6574, 6574, 6574, 6619, 6620, 6621, 6630, 6680, 6680, 6680, 6681, 6681, 6721, 6723, 6766, 6766, 6766, 6771, 6786, 6786]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[0.176, 0.171, 0.149, 0.149, 0.146, 0.138, 0.137, 0.138, 0.14, 0.142, 0.148, 0.144, 0.143, 0.158, 0.156, 0.156, 0.158, 0.163, 0.164, 0.166, 0.165, 0.17, 0.171, 0.17, 0.17, 0.17, 0.178, 0.187, 0.192, 0.192, 0.2, 0.2, 0.202, 0.212, 0.211, 0.221, 0.22, 0.219, 0.222, 0.222, 0.222, 0.224, 0.223, 0.23, 0.233, 0.23, 0.225, 0.228, 0.235, 0.233, 0.234, 0.232, 0.233, 0.235, 0.235, 0.236, 0.233, 0.239, 0.239, 0.239, 0.242, 0.241, 0.242, 0.246, 0.25, 0.254, 0.25, 0.25, 0.25, 0.251, 0.251, 0.251, 0.248, 0.251, 0.253, 0.257, 0.257, 0.254, 0.256, 0.256, 0.254, 0.259, 0.259, 0.254, 0.259, 0.264, 0.26, 0.265, 0.265, 0.262, 0.262, 0.261, 0.262, 0.261, 0.266, 0.268, 0.266, 0.262, 0.266, 0.267, 0.269, 0.265, 0.267, 0.265, 0.27, 0.275, 0.274, 0.273, 0.274, 0.276, 0.276, 0.275, 0.268, 0.277, 0.275, 0.272, 0.271, 0.271, 0.274, 0.275, 0.276, 0.278, 0.274, 0.274, 0.275, 0.276, 0.276, 0.274, 0.277, 0.274, 0.276, 0.279, 0.273, 0.273, 0.279, 0.276, 0.275, 0.276, 0.274, 0.276, 0.278, 0.28, 0.278, 0.288, 0.291, 0.291, 0.289, 0.29, 0.29, 0.288, 0.293, 0.292, 0.292, 0.29, 0.291, 0.298, 0.297, 0.3, 0.3, 0.304, 0.307, 0.304, 0.306, 0.305, 0.303, 0.304, 0.306, 0.307, 0.303, 0.303, 0.306, 0.304, 0.303, 0.303, 0.307, 0.304, 0.309, 0.308, 0.308, 0.304, 0.309, 0.308, 0.308, 0.31, 0.308, 0.31, 0.309, 0.308, 0.308, 0.309, 0.308, 0.306, 0.306, 0.304, 0.309, 0.309, 0.31, 0.306, 0.309, 0.31, 0.309, 0.31, 0.312, 0.312, 0.306, 0.31, 0.308, 0.309, 0.31, 0.312, 0.312, 0.316, 0.313, 0.312, 0.314, 0.312, 0.312, 0.311, 0.311, 0.311, 0.313, 0.313, 0.314, 0.316, 0.317, 0.32, 0.319, 0.319, 0.324, 0.325, 0.325, 0.323, 0.321, 0.322, 0.325, 0.324, 0.323, 0.323, 0.324, 0.326, 0.323]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[0, 14.584149587154377, 59.04936283826827, 89.23884390592568, 146.01504133939736, 168.65630360841746, 187.00597750544543, 213.7968962371349, 251.92280814051617, 284.5862486779688, 304.0922921597956, 338.086190932989, 375.3652063786982, 413.00080034136755, 471.2453477084635, 492.9990555226801, 522.2546144664285, 555.4733268439767, 599.0747645318504, 646.3377721488473, 680.9066459596154, 711.1629457414148, 727.8269222259519, 779.3675152778624, 830.2371973514555, 877.5431262493131, 902.1966687679288, 929.8440696239469, 941.0580631017682, 941.4777631044385, 985.5283654451368, 1032.4739727973936, 1066.231323122978, 1096.999530172348, 1143.4902328014373, 1189.4985307216643, 1205.9331311702726, 1265.9298929691313, 1290.1656948804853, 1290.1656948804853, 1309.2827433824536, 1359.7917711973187, 1389.3246281623835, 1430.5719234704966, 1466.42745540142, 1515.8619031667704, 1534.801553487777, 1590.5153002738946, 1634.9500967979425, 1667.361133885383, 1692.4261893391601, 1736.2589130997649, 1774.5145817399016, 1827.244867885112, 1873.4322944283476, 1929.186196243762, 1963.184950697421, 2001.7237518906584, 2035.3907746434202, 2035.8104746460904, 2079.7685400128353, 2111.9490963101375, 2145.477156913279, 2192.766084849833, 2231.3215032935127, 2281.245401036738, 2300.7992629647238, 2359.378778421877, 2387.4179870009407, 2387.4179870009407, 2407.0914864659294, 2440.0721138358103, 2467.531339931487, 2502.4544358968724, 2554.3361335515965, 2589.1800622940054, 2641.94933605194, 2663.007153761386, 2701.0917765736567, 2739.9414747118935, 2767.37914829254, 2818.5643500328047, 2842.5090893506986, 2855.284515190123, 2880.242387783526, 2927.719035637377, 2943.4723858714087, 2990.371752393244, 3016.712834537028, 3018.577037608622, 3038.1330157995208, 3085.4473898172364, 3111.6988182306277, 3144.859476494788, 3175.612780630587, 3215.2582288384424, 3231.6928292870507, 3279.6550982594476, 3305.718355786799, 3334.8243703961357, 3380.90910053253, 3422.4831692934017, 3453.2243315935116, 3497.063818526266, 3545.5279832839947, 3592.6278863430002, 3623.8379822731, 3657.7688833236675, 3686.150686597822, 3686.5703866004924, 3725.7942401885966, 3770.30304379463, 3795.2988264799096, 3830.332026338575, 3864.14072051048, 3913.0857182979557, 3931.310615766046, 3972.2261641383147, 3998.569437563417, 4033.2829492688156, 4050.557288277147, 4090.1263097405413, 4122.575314390657, 4169.346254026887, 4219.189247500894, 4266.929175746439, 4302.310801398752, 4334.14720238447, 4362.407058441637, 4362.826758444307, 4403.35181404352, 4445.1101904034595, 4477.217626583574, 4518.874512064455, 4573.0868298649775, 4623.044156277178, 4657.024013006686, 4690.536014044284, 4718.5264716267575, 4718.946171629428, 4764.18136717081, 4787.335388839244, 4814.620388185977, 4847.34760094881, 4891.048861420154, 4933.631009495258, 4948.556309902668, 4993.285022199154, 5021.403442466259, 5021.403442466259, 5049.538142180442, 5105.034577393531, 5138.823598027229, 5185.3435922145845, 5214.199962615967, 5255.292681407928, 5318.450673437118, 5370.435419893264, 5418.272853851318, 5446.808216929436, 5459.986600100994, 5493.816191470623, 5521.78185595274, 5562.72311025858, 5587.23781386614, 5628.813506519796, 5684.728399956228, 5725.349089539052, 5774.467845427991, 5800.359155070782, 5812.756370520592, 5843.1348551034935, 5890.939696192742, 5929.741784787179, 5978.19733259678, 6006.129129409791, 6039.702820068599, 6067.091720777751, 6117.188187080623, 6156.780236130954, 6200.943017011882, 6242.084243732692, 6262.136960321666, 6280.01001430154, 6303.483852988483, 6342.639851218463, 6358.487750083209, 6404.497707730533, 6430.06493189931, 6457.395431691409, 6477.322175377608, 6495.690940326453, 6521.165394729376, 6566.58695062995, 6587.169400638342, 6632.052224963903, 6685.227718013525, 6725.422898715735, 6765.299456566572, 6793.909187334776, 6806.223070019484, 6850.13566018939, 6869.308143901825, 6916.331380677223, 6964.71002266407, 7013.272708153724, 7049.29001944065, 7079.869720387458, 7110.235406005382, 7110.655106008053, 7154.16961196661, 7206.871706855298, 7240.937570309639, 7268.10672364235, 7314.359059476853, 7357.4306575298315, 7374.6933078050615, 7422.171109414101, 7453.075483512879, 7484.987371826172, 7518.9449394702915, 7551.077208566666, 7585.220007944107, 7626.264356613159, 7679.428654384613, 7715.7394521474835, 7732.746218395233, 7761.491166734695, 7802.394783234596, 7819.396139740943, 7831.206860566138, 7867.330111968516, 7900.128138649462, 7921.674844849108, 7949.039349544047, 7991.62149761915, 8009.293693006037, 8057.740429341791, 8091.874883258341, 8132.714010441301, 8159.19086089134]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[0, 1.73, 23.09, 38.71, 41.05, 54.01, 56.88, 59.28, 62.45, 67.47, 82.61, 87.74, 112.07, 126.64, 131.51, 140.55, 145.53, 154.07, 162.27, 166.3, 172.44, 182.67, 189.8, 195.48, 201.13, 206.42, 214.25, 231.86, 245.94, 251.76, 265.13, 278.79, 285.27, 297.34, 327.22, 356.13, 378.13, 387.05, 395.78, 403.99, 423.46, 453.09, 468.58, 488.96, 499.76, 534.06, 566.25, 601.41, 626.22, 647.58, 660.95, 692.69, 704.46, 719.1, 732.44, 756.05, 776.26, 806.03, 841.45, 859.66, 886.61, 899.0, 917.06, 934.96, 968.41, 998.71, 1018.14, 1030.12, 1040.65, 1055.76, 1071.86, 1082.26, 1096.86, 1118.64, 1135.44, 1160.89, 1172.61, 1185.7, 1208.42, 1226.87, 1252.54, 1278.76, 1292.05, 1325.36, 1338.22, 1360.58, 1383.44, 1406.55, 1417.59, 1434.17, 1453.76, 1483.32, 1496.48, 1515.24, 1529.78, 1553.2, 1578.58, 1605.5, 1618.47, 1638.19, 1661.02, 1681.27, 1696.3, 1711.01, 1732.7, 1751.5, 1767.37, 1801.13, 1828.17, 1847.09, 1867.93, 1892.35, 1911.92, 1938.8, 1963.48, 1999.86, 2031.92, 2061.35, 2078.59, 2099.38, 2119.53, 2138.51, 2160.93, 2178.46, 2195.45, 2211.85, 2229.35, 2254.81, 2286.44, 2307.31, 2330.24, 2359.39, 2376.14, 2399.39, 2418.49, 2438.54, 2467.37, 2506.91, 2550.39, 2574.62, 2602.4, 2622.38, 2639.92, 2670.62, 2688.32, 2717.99, 2740.06, 2763.7, 2790.13, 2815.43, 2840.54, 2861.13, 2887.26, 2920.98, 2937.61, 2964.11, 2983.01, 3012.77, 3055.09, 3086.31, 3109.82, 3134.69, 3160.46, 3183.36, 3210.31, 3229.52, 3248.49, 3272.89, 3299.92, 3320.93, 3340.04, 3359.86, 3383.51, 3403.11, 3425.11, 3450.09, 3472.5, 3499.44, 3521.85, 3544.21, 3567.58, 3602.99, 3624.22, 3649.61, 3668.25, 3694.9, 3727.77, 3763.79, 3783.09, 3809.0, 3835.79, 3856.21, 3875.66, 3896.08, 3916.48, 3946.02, 3964.94, 3989.03, 4012.38, 4051.01, 4080.13, 4110.46, 4137.6, 4164.29, 4189.13, 4213.36, 4241.75, 4279.17, 4310.4, 4336.76, 4367.76, 4393.11, 4417.9, 4446.77, 4479.31, 4509.66, 4545.34, 4586.55, 4611.64, 4643.89, 4671.14, 4695.96, 4722.32, 4753.51, 4783.36, 4813.02, 4838.54, 4869.27, 4908.85, 4940.46, 4968.13, 4996.51, 5023.13, 5058.57, 5081.37, 5117.0, 5142.53, 5173.44, 5204.51, 5232.84, 5264.88]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, -10, 0, 0, -10, -10, -10, 0, 0, -20, 0, 0, -20, 0, 0, 0, -20, 0, -10, 0, 0, 0, -10, 0, -10, -10, 0, -10, 0, 0, 0, -10, 0, 0, -10, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, 0, 0, 0, -10, 0, 0, 0, 0, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, -20, -20, -20, 0, -20, -20, -20, 0, 0, 0, 0, -20, -10, 0, -10, -10, -10, 0, -10, 0, -10, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -10, -20, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>clusterStdLow</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CBCLPR</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[100, 106, 206, 215, 215, 286, 288, 293, 298, 298, 307, 384, 384, 392, 401, 502, 620, 735, 736, 755, 763, 763, 763, 779, 779, 782, 782, 862, 915, 915, 920, 920, 920, 920, 920, 921, 921, 999, 1083, 1083, 1083, 1085, 1138, 1138, 1138, 1218, 1218, 1219, 1226, 1226, 1280, 1282, 1400, 1400, 1400, 1464, 1464, 1468, 1477, 1477, 1530, 1530, 1531, 1533, 1533, 1533, 1536, 1576, 1632, 1632, 1635, 1722, 1722, 1762, 1766, 1857, 1975, 2075, 2078, 2099, 2102, 2195, 2197, 2202, 2209, 2307, 2419, 2515, 2516, 2529, 2534, 2622, 2622, 2675, 2675, 2768, 2889, 2993, 3019, 3039, 3048, 3057, 3130, 3133, 3133, 3208, 3208, 3208, 3213, 3213, 3276, 3279, 3283, 3283, 3283, 3379, 3379, 3380, 3391, 3391, 3459, 3460, 3460, 3460, 3460, 3461, 3461, 3496, 3531, 3531, 3531, 3543, 3543, 3543, 3543, 3589, 3589, 3680, 3801, 3801, 3855, 3920, 3920, 3941, 3941, 4006, 4034, 4119, 4234, 4234, 4245, 4274, 4282, 4282, 4374, 4449, 4490, 4490, 4490, 4490, 4549, 4639, 4639, 4683, 4686, 4727, 4796, 4893, 4894, 4900, 4912, 4935, 4937, 5040, 5040, 5118, 5155, 5156, 5218, 5218, 5298, 5300, 5304, 5304, 5304, 5374, 5376, 5377, 5383, 5383, 5437, 5451, 5451, 5451, 5451, 5482, 5482, 5562, 5672, 5672, 5701, 5702, 5702, 5702, 5782, 5787, 5787, 5812, 5837, 5837, 5847, 5857, 5862, 5865, 5950, 5993, 6038, 6038, 6038, 6038, 6067, 6076, 6078, 6078, 6081, 6120, 6160, 6160, 6160, 6160, 6185, 6212, 6212, 6212, 6212, 6212, 6239, 6320, 6364, 6364, 6403]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[0.176, 0.164, 0.146, 0.148, 0.147, 0.143, 0.143, 0.15, 0.15, 0.15, 0.158, 0.156, 0.156, 0.166, 0.168, 0.171, 0.162, 0.168, 0.172, 0.178, 0.18, 0.176, 0.178, 0.178, 0.177, 0.181, 0.184, 0.198, 0.203, 0.203, 0.212, 0.21, 0.212, 0.206, 0.212, 0.209, 0.21, 0.216, 0.217, 0.22, 0.217, 0.221, 0.22, 0.219, 0.221, 0.222, 0.221, 0.221, 0.224, 0.221, 0.234, 0.236, 0.234, 0.234, 0.236, 0.234, 0.235, 0.238, 0.239, 0.242, 0.248, 0.247, 0.244, 0.247, 0.246, 0.246, 0.249, 0.251, 0.256, 0.256, 0.257, 0.258, 0.258, 0.256, 0.257, 0.256, 0.255, 0.256, 0.256, 0.256, 0.256, 0.26, 0.256, 0.256, 0.256, 0.258, 0.262, 0.259, 0.26, 0.26, 0.258, 0.258, 0.257, 0.256, 0.258, 0.26, 0.261, 0.256, 0.258, 0.256, 0.259, 0.258, 0.256, 0.259, 0.258, 0.255, 0.262, 0.258, 0.26, 0.257, 0.258, 0.259, 0.261, 0.259, 0.258, 0.268, 0.267, 0.27, 0.268, 0.267, 0.267, 0.268, 0.268, 0.268, 0.265, 0.268, 0.268, 0.27, 0.264, 0.267, 0.264, 0.271, 0.274, 0.272, 0.268, 0.275, 0.272, 0.277, 0.285, 0.287, 0.287, 0.286, 0.287, 0.291, 0.288, 0.291, 0.297, 0.298, 0.296, 0.296, 0.297, 0.298, 0.3, 0.302, 0.311, 0.31, 0.308, 0.312, 0.31, 0.314, 0.314, 0.311, 0.312, 0.312, 0.31, 0.313, 0.308, 0.313, 0.312, 0.31, 0.313, 0.314, 0.31, 0.307, 0.31, 0.31, 0.312, 0.309, 0.309, 0.311, 0.311, 0.314, 0.313, 0.31, 0.314, 0.309, 0.309, 0.312, 0.311, 0.314, 0.311, 0.311, 0.313, 0.314, 0.312, 0.314, 0.312, 0.311, 0.308, 0.312, 0.308, 0.311, 0.309, 0.308, 0.314, 0.314, 0.316, 0.314, 0.32, 0.315, 0.314, 0.318, 0.32, 0.321, 0.318, 0.324, 0.324, 0.32, 0.322, 0.321, 0.325, 0.326, 0.322, 0.324, 0.324, 0.324, 0.327, 0.324, 0.321, 0.323, 0.326, 0.323, 0.324, 0.324, 0.324, 0.326, 0.321, 0.322, 0.322, 0.322, 0.324]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[0, 17.798183166980746, 58.710498726367916, 98.36206122636793, 154.64880868196485, 186.17767091989512, 233.72954616546613, 254.717888855934, 297.74542627334574, 340.80178010463703, 370.15088309049594, 412.78485001325595, 446.0414534926414, 472.8747504234313, 501.3753158926963, 550.8097636580467, 570.5983641982077, 626.3121109843254, 656.7133974194526, 688.9808586359022, 700.7458847761152, 723.0031704664228, 761.9609399557112, 808.6005737304685, 857.0195098876949, 895.198239445686, 911.9180649280544, 941.5572287917132, 983.0279693007465, 990.5841277480121, 1003.7421801924701, 1044.9162465453144, 1089.465931665897, 1134.5113253235813, 1187.294342577457, 1222.9551093935963, 1236.2030592918393, 1263.006007623672, 1304.584167861938, 1382.3776803851124, 1393.9763105154034, 1424.3748636007306, 1475.7430382013317, 1518.134454774856, 1575.8895521640773, 1607.2312208175654, 1664.5958083271973, 1690.1247854709618, 1736.9061477422706, 1780.9523022651665, 1808.355300164222, 1843.3242072820656, 1889.1328144311897, 1928.3546449899666, 1983.662492489814, 2013.703729414939, 2060.121006458997, 2079.765077596902, 2134.5456225454795, 2178.8392273724066, 2207.5201619207846, 2245.0603862106786, 2285.912785464524, 2334.150085312127, 2388.2782177507866, 2426.605283409356, 2446.646130245923, 2475.3994489133347, 2518.300163739919, 2565.053894132375, 2576.7204684555522, 2624.031398087739, 2646.205388766526, 2667.3926025271403, 2698.270412266253, 2742.810360252856, 2762.3919596314418, 2816.927986538409, 2843.693570768832, 2883.6252479195587, 2943.1576527357092, 2994.894513964652, 3022.4049041748035, 3050.5438033819187, 3086.7153027534473, 3134.6814005851734, 3155.386069500445, 3201.894936382769, 3230.5482829928387, 3257.3433883070934, 3309.2335905671107, 3360.96378494501, 3393.555018377303, 3414.0093433797347, 3454.8407026231275, 3500.35955056548, 3520.5571993529784, 3570.941805142163, 3604.499238413571, 3635.7489013135423, 3660.4144944250575, 3692.363684922456, 3740.1898984730233, 3786.5667165100563, 3840.819665032624, 3873.3249155580984, 3904.595017182826, 3934.7448441982256, 3978.2179838657366, 4022.7590389966954, 4052.8865025758732, 4085.9818702459324, 4091.8338982880105, 4137.0955764830105, 4190.445624071359, 4237.711678940057, 4272.209623867273, 4301.878133159876, 4344.58148470521, 4377.471379929781, 4400.731109780073, 4430.267728281021, 4470.435727548599, 4522.559401130676, 4572.677821731567, 4608.190403628349, 4622.396769213676, 4650.793433976172, 4700.347247958182, 4747.100978350639, 4758.9951688885685, 4806.982736718654, 4844.397064471244, 4898.896161937713, 4946.059604001045, 5001.264591765404, 5037.052902770042, 5075.17280395031, 5106.906989240646, 5112.915426194668, 5158.0604634642605, 5203.143230164052, 5234.4721171915535, 5290.743484693766, 5344.034561806918, 5398.615112429858, 5434.810108786822, 5470.416609889269, 5500.756754666567, 5501.1764546692375, 5540.403110343218, 5574.352921706438, 5609.118374019861, 5653.068597060442, 5698.6294856369495, 5746.106133490801, 5767.76568415761, 5826.344819909335, 5853.490973120928, 5853.490973120928, 5875.131822532416, 5924.390208238364, 5926.246140354872, 5947.083653134108, 5978.063595598936, 6018.687943762541, 6037.06594387889, 6084.059278124571, 6112.090843838454, 6115.353199213744, 6137.3442889630805, 6164.442371195556, 6209.669910925628, 6235.250370377304, 6290.558217877151, 6322.7671603620065, 6342.354810374976, 6366.367687255145, 6403.809594732524, 6449.8353516876705, 6468.4163214027885, 6499.403324061633, 6540.55668821931, 6583.86330767274, 6630.850505548717, 6662.128001624347, 6705.017374050619, 6727.630451512338, 6773.64890716076, 6808.0444989681255, 6829.296939909459, 6872.250236690045, 6906.407083690167, 6948.012476956846, 6996.605681288243, 7044.213132154942, 7077.154645693303, 7110.6666467309005, 7139.555147349835, 7139.974847352506, 7177.842692506315, 7207.828627550603, 7239.062561786176, 7278.814864766599, 7322.539394605162, 7354.992470586302, 7367.13368880749, 7392.971427249911, 7427.88072934151, 7436.381407594684, 7444.355226230625, 7494.967532157902, 7525.269149899486, 7560.98891808987, 7602.365643429759, 7639.074391770366, 7655.173592209819, 7706.19446051121, 7732.142899489406, 7732.142899489406, 7749.849049007896, 7778.608791649344, 7806.181124627593, 7850.182405364516, 7891.559130704405, 7929.736228978636, 7944.4938293814685, 7996.931944024565, 8020.291634500029, 8020.291634500029, 8038.534334003928, 8079.024800264838, 8111.473804914954, 8156.085019099714, 8205.775405561926, 8246.856698834898, 8276.010803353787, 8309.941704404355, 8322.57113813162, 8322.99083813429, 8364.21618756056]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[0, 1.27, 20.36, 24.55, 27.11, 45.76, 49.91, 53.55, 58.81, 62.93, 68.03, 83.04, 90.25, 96.4, 104.11, 130.21, 155.41, 184.11, 191.63, 202.59, 209.2, 216.91, 223.48, 233.35, 240.82, 248.71, 256.09, 280.12, 301.34, 314.06, 323.09, 333.67, 344.21, 353.82, 363.34, 373.99, 385.1, 409.55, 434.58, 445.17, 458.59, 469.74, 490.39, 502.17, 513.14, 539.87, 552.0, 567.16, 581.57, 593.19, 618.34, 632.25, 670.38, 685.63, 698.51, 724.66, 740.56, 755.25, 772.77, 787.31, 811.63, 827.28, 843.03, 856.77, 870.14, 884.02, 901.75, 923.48, 948.97, 965.98, 978.98, 1008.61, 1021.63, 1044.65, 1063.75, 1097.3, 1133.17, 1166.52, 1186.0, 1204.04, 1218.7, 1253.23, 1269.05, 1290.04, 1305.44, 1339.53, 1374.44, 1406.36, 1422.54, 1442.76, 1460.67, 1495.54, 1509.57, 1536.63, 1550.83, 1587.35, 1633.78, 1665.69, 1686.49, 1706.53, 1726.04, 1741.55, 1772.7, 1792.38, 1807.16, 1836.76, 1854.54, 1873.07, 1890.84, 1907.11, 1934.9, 1951.17, 1969.16, 1982.99, 2001.76, 2035.65, 2053.42, 2073.29, 2092.25, 2112.09, 2144.57, 2162.05, 2176.42, 2191.26, 2210.89, 2231.44, 2246.65, 2269.51, 2293.98, 2311.51, 2328.57, 2346.17, 2368.82, 2388.58, 2404.12, 2432.17, 2450.66, 2488.19, 2525.46, 2545.91, 2576.78, 2607.4, 2627.87, 2652.03, 2671.05, 2707.53, 2734.35, 2770.43, 2809.16, 2827.51, 2848.73, 2875.35, 2903.13, 2926.14, 2965.18, 3006.45, 3036.32, 3062.08, 3080.86, 3103.31, 3136.16, 3173.73, 3198.65, 3226.52, 3250.26, 3281.21, 3318.33, 3355.65, 3377.49, 3401.64, 3424.38, 3451.21, 3472.4, 3515.47, 3540.8, 3580.36, 3609.32, 3634.54, 3667.8, 3686.3, 3715.99, 3738.73, 3753.73, 3769.17, 3788.91, 3813.29, 3829.39, 3845.68, 3866.89, 3885.24, 3914.39, 3929.01, 3945.87, 3961.42, 3981.58, 4009.21, 4024.86, 4053.56, 4092.88, 4109.34, 4127.61, 4142.93, 4166.46, 4184.24, 4219.44, 4238.71, 4261.18, 4286.27, 4306.65, 4327.92, 4349.17, 4373.53, 4398.64, 4420.33, 4453.91, 4483.46, 4510.81, 4532.39, 4551.7, 4571.6, 4594.94, 4617.41, 4635.92, 4659.04, 4676.66, 4699.47, 4722.87, 4743.99, 4770.8, 4794.08, 4816.43, 4837.97, 4856.57, 4883.11, 4903.71, 4921.42, 4950.52, 4978.86, 5010.65, 5030.36, 5063.36]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, -20, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -10, 0, -10, -10, 0, 0, 0, -10, 0, -20, -20, 0, -20, 0, -10, 0, -20, 0, 0, -20, -20, -20, -20, -20, -20, 0, -20, -20, -20, 0, 0, 0, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, -10, 0, -20, 0, -10, 0, -10, 0, -10, -10, -10, 0, -10, -10, -10, 0, -10, -10, 0, -10, -10, -10, -10, 0, 0, 0, -10, -10, -10, -10, -10, -20, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>clusterStdHigh</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CBCLPR</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[100, 103, 115, 203, 203, 262, 333, 357, 378, 378, 404, 448, 448, 448, 448, 448, 488, 577, 707, 707, 762, 865, 865, 882, 898, 996, 1016, 1134, 1135, 1256, 1262, 1278, 1281, 1340, 1379, 1463, 1515, 1515, 1515, 1515, 1560, 1562, 1562, 1562, 1562, 1563, 1563, 1572, 1633, 1633, 1642, 1642, 1646, 1737, 1737, 1737, 1737, 1737, 1846, 1859, 1865, 1957, 1957, 2034, 2035, 2125, 2264, 2373, 2473, 2486, 2501, 2501, 2539, 2604, 2604, 2674, 2674, 2674, 2770, 2770, 2770, 2859, 2859, 2888, 2895, 2984, 3099, 3211, 3212, 3220, 3227, 3227, 3227, 3227, 3227, 3227, 3231, 3265, 3308, 3308, 3308, 3308, 3312, 3381, 3381, 3381, 3381, 3381, 3458, 3458, 3458, 3458, 3459, 3517, 3568, 3677, 3787, 3904, 3905, 3915, 3915, 3951, 3991, 4069, 4069, 4118, 4121, 4125, 4210, 4210, 4257, 4265, 4270, 4282, 4387, 4478, 4565, 4565, 4565, 4565, 4613, 4626, 4658, 4658, 4658, 4727, 4727, 4731, 4752, 4752, 4756, 4756, 4841, 4841, 4841, 4841, 4841, 4841, 4843, 4843, 4843, 4845, 4845, 4845, 4845, 4845, 4845, 4861, 4918, 4918, 4918, 4922, 5039, 5140, 5140, 5220, 5248, 5248, 5336, 5336, 5371, 5371, 5371, 5371, 5371, 5373, 5373, 5386, 5400, 5400, 5400, 5400, 5400, 5419, 5421, 5497, 5623, 5701, 5705, 5717, 5717, 5723, 5730, 5738, 5738, 5833, 5838, 5843, 5874, 5874, 5877, 5877, 5877, 5877, 5995, 6068, 6070, 6161, 6211, 6211, 6214, 6231, 6232, 6232, 6232, 6302, 6304, 6393, 6439, 6439, 6475, 6475, 6476, 6504, 6512, 6559, 6587, 6587, 6605, 6608, 6608]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[0.176, 0.171, 0.175, 0.172, 0.174, 0.157, 0.161, 0.162, 0.163, 0.161, 0.173, 0.177, 0.177, 0.177, 0.176, 0.177, 0.18, 0.186, 0.188, 0.189, 0.198, 0.2, 0.202, 0.2, 0.2, 0.215, 0.215, 0.218, 0.22, 0.224, 0.222, 0.226, 0.229, 0.243, 0.248, 0.248, 0.246, 0.247, 0.247, 0.247, 0.247, 0.249, 0.247, 0.249, 0.248, 0.248, 0.247, 0.252, 0.265, 0.263, 0.261, 0.261, 0.262, 0.26, 0.262, 0.263, 0.26, 0.262, 0.266, 0.265, 0.269, 0.268, 0.268, 0.276, 0.273, 0.274, 0.272, 0.272, 0.272, 0.27, 0.271, 0.27, 0.274, 0.278, 0.275, 0.281, 0.283, 0.282, 0.282, 0.28, 0.282, 0.279, 0.28, 0.28, 0.28, 0.284, 0.282, 0.28, 0.279, 0.28, 0.281, 0.279, 0.281, 0.282, 0.284, 0.281, 0.281, 0.284, 0.284, 0.285, 0.286, 0.283, 0.284, 0.286, 0.285, 0.284, 0.285, 0.289, 0.282, 0.284, 0.285, 0.284, 0.286, 0.284, 0.291, 0.29, 0.289, 0.286, 0.291, 0.287, 0.287, 0.291, 0.289, 0.295, 0.295, 0.298, 0.296, 0.301, 0.301, 0.3, 0.302, 0.302, 0.302, 0.307, 0.306, 0.306, 0.303, 0.306, 0.307, 0.308, 0.308, 0.308, 0.306, 0.311, 0.309, 0.308, 0.314, 0.314, 0.315, 0.311, 0.312, 0.312, 0.311, 0.308, 0.311, 0.31, 0.312, 0.309, 0.314, 0.31, 0.318, 0.314, 0.309, 0.309, 0.31, 0.313, 0.311, 0.318, 0.32, 0.32, 0.319, 0.318, 0.319, 0.319, 0.319, 0.316, 0.322, 0.322, 0.328, 0.33, 0.326, 0.324, 0.327, 0.321, 0.326, 0.324, 0.327, 0.324, 0.328, 0.326, 0.326, 0.327, 0.332, 0.326, 0.324, 0.322, 0.324, 0.325, 0.324, 0.328, 0.325, 0.327, 0.326, 0.326, 0.324, 0.324, 0.321, 0.327, 0.328, 0.33, 0.332, 0.332, 0.333, 0.332, 0.334, 0.335, 0.337, 0.34, 0.342, 0.341, 0.342, 0.341, 0.343, 0.341, 0.341, 0.345, 0.346, 0.344, 0.341, 0.343, 0.34, 0.346, 0.342, 0.342, 0.344, 0.345, 0.342, 0.341, 0.344, 0.345, 0.342]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[0, 26.545194578170815, 74.25038352012632, 99.54466233253477, 155.83140978813168, 190.57589068412773, 209.97293472290028, 248.45972869396195, 307.7720949172971, 354.0453013181685, 389.3805050015448, 424.9963991999625, 437.52062091231335, 474.339051812887, 530.6668931901454, 582.5843325078486, 614.6886399209498, 651.9707410752771, 685.89646243453, 700.12919691205, 746.084886151552, 799.2661310493944, 831.0789358913897, 857.4330515205859, 895.8135394871233, 943.7796373188494, 963.8139724016188, 1020.981121277809, 1052.5278381109238, 1108.9199810266493, 1135.0828647851943, 1171.0921434164045, 1194.9239392518996, 1221.5609528303144, 1251.7799095392224, 1292.893707680702, 1309.6637081384656, 1368.243223595619, 1396.8797897815703, 1396.8797897815703, 1405.886811506748, 1432.1917106509206, 1473.564749896526, 1525.7194960474965, 1577.2125071883197, 1613.2830865263936, 1629.7648678302762, 1683.8750904798505, 1726.4388776063918, 1747.2183133363721, 1758.615129125118, 1759.843979036808, 1788.1109068512915, 1841.7825935959813, 1861.8773049950596, 1910.0672685265538, 1969.0778609395022, 2019.9378923535342, 2073.4652288317675, 2102.5366842150684, 2116.5506804585452, 2167.2567275643346, 2201.7811314225196, 2241.4312655329704, 2277.7161345481873, 2321.7666325569153, 2345.0769331932065, 2397.883875799179, 2445.8182643175123, 2475.122579026222, 2495.3166727781295, 2506.315100455284, 2540.8532195806506, 2593.8845637321474, 2620.650617671013, 2668.8300200223925, 2739.852610898018, 2783.132637381554, 2835.0403127670293, 2884.40630979538, 2897.091982662678, 2945.340324175358, 2972.7730473876, 3002.3654584288597, 3037.9281630158425, 3081.489211046696, 3100.774711573124, 3155.035056269169, 3187.0406418919565, 3206.7267535567285, 3235.887496340275, 3271.291571557522, 3309.852850854397, 3360.113910639286, 3411.403049528599, 3446.4033243536946, 3491.686181122064, 3518.1343893229955, 3557.3054065644737, 3590.835859674215, 3602.353125172853, 3623.26143912673, 3625.6409476220606, 3672.9480313956738, 3700.6361241519453, 3750.2434110820295, 3818.7165991961956, 3863.6735699355604, 3916.763346451521, 3960.32772833705, 3973.868819302321, 4024.5473462283617, 4053.744992798567, 4071.8168712794786, 4112.26756810546, 4165.617615693808, 4184.064616197348, 4240.747297710181, 4270.082583373785, 4275.388476675749, 4304.274066644907, 4319.328380960226, 4343.333284014464, 4371.421368879081, 4426.239766401053, 4456.252036112548, 4487.619697618486, 4514.093318903448, 4552.298133003713, 4595.849386918546, 4617.03897932768, 4665.290922343732, 4699.427301919462, 4739.669530487062, 4790.34439635277, 4834.884344339373, 4854.741346621515, 4913.793277525903, 4944.9408699989335, 4944.9408699989335, 4966.224019420149, 4997.219563114645, 5012.227995502951, 5055.967729580404, 5112.057227385046, 5146.023223793508, 5204.247510629893, 5227.750582724811, 5278.083000499011, 5320.149552589656, 5374.767941552402, 5388.029115581514, 5428.480760002138, 5466.119284963609, 5490.280986952783, 5537.998497796059, 5604.033739972115, 5653.602066445351, 5694.388323676586, 5745.824922263622, 5760.524989688396, 5800.237950867414, 5835.184110230207, 5880.188912647962, 5936.227045887707, 5973.446016305684, 5988.654828590154, 6041.697884649037, 6084.47506288886, 6129.339753669499, 6145.565942865609, 6150.683362358807, 6195.892173022031, 6220.384157150983, 6270.686706608533, 6302.685790914296, 6326.969767844676, 6358.911916291713, 6402.772118175029, 6446.3233720898625, 6479.5241885066025, 6526.774798500537, 6567.469781434535, 6613.042625963687, 6667.170758402346, 6704.692234575747, 6721.07869157791, 6770.783460974692, 6807.914482998847, 6838.13911678791, 6850.217123186588, 6900.753824722767, 6929.860560512542, 6956.037295150756, 6992.431740701198, 7036.482238709926, 7057.612439286708, 7113.749275481699, 7148.74161196947, 7177.7975124955165, 7204.826543819903, 7236.8316648244845, 7251.307648348807, 7294.62850487232, 7349.936352372168, 7388.792437720297, 7417.939518541096, 7443.896544009445, 7488.658676558731, 7531.962479311225, 7582.23166324496, 7623.069299978015, 7664.010780709979, 7715.717552942035, 7771.540342229602, 7819.708493703602, 7835.590250033138, 7865.7959535777545, 7907.554541534183, 7920.468366140125, 7933.518928843734, 7980.044921976326, 8017.579380375145, 8059.66518281102, 8113.689330488442, 8169.321923309562, 8205.275721031425, 8242.557822185752, 8271.990469151733, 8272.410169154404, 8315.230824404953, 8367.836088210342, 8389.514174753425, 8413.316211134194, 8443.189731651542, 8489.19802957177, 8508.986630111931, 8563.246974807977, 8597.997201424836, 8615.241079837082, 8669.209258407353]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[0, 0.94, 5.24, 25.83, 28.29, 39.96, 56.92, 64.17, 70.91, 74.22, 81.9, 94.19, 99.29, 105.61, 110.71, 115.28, 124.07, 143.03, 174.99, 182.32, 195.83, 223.87, 231.16, 241.69, 250.26, 274.4, 285.28, 319.75, 327.37, 358.35, 369.83, 378.55, 388.38, 404.82, 417.27, 440.7, 459.23, 472.66, 486.25, 499.58, 512.03, 526.27, 539.33, 550.37, 564.72, 579.41, 591.72, 601.58, 628.77, 639.22, 651.78, 662.82, 676.22, 710.73, 725.71, 739.07, 752.76, 764.61, 796.93, 812.59, 828.48, 863.82, 877.86, 908.69, 924.3, 958.47, 990.34, 1014.19, 1040.16, 1055.68, 1068.6, 1080.58, 1099.88, 1123.56, 1136.74, 1157.67, 1167.6, 1180.17, 1208.81, 1216.6, 1230.53, 1253.76, 1263.29, 1278.25, 1292.34, 1314.68, 1344.69, 1374.45, 1385.38, 1400.61, 1415.47, 1427.14, 1437.84, 1451.59, 1463.77, 1476.57, 1487.79, 1505.94, 1527.19, 1536.1, 1545.59, 1559.26, 1573.68, 1597.84, 1611.46, 1624.64, 1637.67, 1650.62, 1672.89, 1684.28, 1698.81, 1713.26, 1729.57, 1746.49, 1767.67, 1797.41, 1826.14, 1860.56, 1874.27, 1890.27, 1903.42, 1925.17, 1946.14, 1969.65, 1982.86, 2003.54, 2022.69, 2039.05, 2065.94, 2080.51, 2106.35, 2125.4, 2140.12, 2154.76, 2187.73, 2222.61, 2247.8, 2264.37, 2287.77, 2304.32, 2327.62, 2343.51, 2361.5, 2374.93, 2392.24, 2417.98, 2437.27, 2455.28, 2470.58, 2484.97, 2501.03, 2516.47, 2540.52, 2554.15, 2569.26, 2585.14, 2597.47, 2611.87, 2628.55, 2642.32, 2655.52, 2671.61, 2686.97, 2702.25, 2718.47, 2732.57, 2749.12, 2766.19, 2790.4, 2806.47, 2823.18, 2839.97, 2868.01, 2898.06, 2913.79, 2939.19, 2958.98, 2975.42, 3003.03, 3020.49, 3042.76, 3060.13, 3078.59, 3094.66, 3110.78, 3127.59, 3144.45, 3163.36, 3182.92, 3200.35, 3218.2, 3237.11, 3253.37, 3272.17, 3290.13, 3316.66, 3358.89, 3391.27, 3410.8, 3430.31, 3448.02, 3467.02, 3482.96, 3500.96, 3519.38, 3548.71, 3569.05, 3589.28, 3612.48, 3631.95, 3651.12, 3670.68, 3688.31, 3705.77, 3735.73, 3764.15, 3781.46, 3811.7, 3835.28, 3854.82, 3876.78, 3897.56, 3917.31, 3937.06, 3956.66, 3984.03, 4004.1, 4034.38, 4059.59, 4083.02, 4105.41, 4126.82, 4147.8, 4171.03, 4189.8, 4216.53, 4241.06, 4260.91, 4281.87, 4304.15, 4323.27]</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[-20, -20, -20, -20, 0, -10, 0, -10, 0, -20, 0, 0, -10, -10, -20, 0, -10, 0, 0, -20, 0, -20, 0, -10, 0, -20, 0, 0, -10, 0, -10, 0, -20, 0, -20, -10, 0, 0, -10, 0, -20, 0, -20, 0, 0, 0, -10, -20, -10, -10, -20, -10, 0, -10, 0, 0, -20, 0, -20, -10, 0, -10, -20, -10, 0, -10, 0, 0, -10, 0, 0, 0, -20, 0, -20, -20, 0, 0, -10, 0, 0, 0, -10, -10, 0, -20, 0, -20, 0, 0, -10, -20, -20, 0, 0, 0, -10, 0, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[100, 127, 174, 247, 247, 308, 308, 308, 314, 314, 333, 374, 397, 424, 424, 458, 459, 489, 497, 497, 535, 535, 535, 543, 574, 615, 615, 628, 658, 658, 659, 682, 689, 718, 792, 893, 954, 954, 954, 954, 971, 1017, 1017, 1017, 1054, 1054, 1115, 1192, 1294, 1294, 1348, 1435, 1435, 1453, 1496, 1588, 1710, 1822, 1823, 1841, 1850, 1870, 1956, 1956, 1956, 2051, 2051, 2053, 2063, 2063, 2065, 2083, 2083, 2083, 2083, 2083, 2083, 2158, 2250, 2250, 2301, 2314, 2314, 2314, 2314, 2336, 2341, 2442, 2529, 2529, 2540, 2570, 2676, 2732, 2732, 2785, 2785, 2807, 2821, 2821, 2873, 2896, 2896, 2896, 2897, 2900, 2900, 2990, 3115, 3115, 3122, 3133, 3134, 3136, 3136, 3151, 3195, 3284, 3385, 3385, 3435, 3435, 3454, 3455, 3455, 3542, 3542, 3560, 3612, 3612, 3612, 3612, 3683, 3683, 3683, 3687, 3694, 3797, 3869, 3869, 3876, 3934, 3934, 3934, 3934, 3934, 3935, 4023, 4026, 4026, 4074, 4166, 4166, 4199, 4215, 4312, 4426, 4538, 4586, 4590, 4603, 4693, 4693, 4711, 4712, 4804, 4923, 5035, 5039, 5057, 5071, 5078, 5080, 5085, 5085, 5143, 5146, 5174, 5248, 5248, 5282, 5283, 5283, 5283, 5330, 5331, 5333, 5351, 5386, 5417, 5417, 5427, 5451, 5507, 5507, 5563, 5563, 5572, 5577, 5577, 5649, 5649, 5652, 5708, 5709, 5709, 5709, 5709, 5812, 5812, 5812, 5832, 5832, 5832, 5832, 5832, 5837, 5910, 5913, 5913, 5927]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[0.175, 0.142, 0.124, 0.127, 0.127, 0.124, 0.124, 0.124, 0.123, 0.123, 0.133, 0.128, 0.135, 0.134, 0.134, 0.132, 0.132, 0.137, 0.137, 0.137, 0.144, 0.144, 0.144, 0.147, 0.151, 0.166, 0.166, 0.174, 0.183, 0.183, 0.183, 0.188, 0.192, 0.196, 0.197, 0.204, 0.204, 0.204, 0.204, 0.204, 0.212, 0.219, 0.219, 0.219, 0.224, 0.224, 0.227, 0.232, 0.232, 0.232, 0.236, 0.235, 0.235, 0.236, 0.236, 0.235, 0.234, 0.239, 0.242, 0.246, 0.246, 0.245, 0.244, 0.244, 0.244, 0.245, 0.245, 0.245, 0.248, 0.248, 0.248, 0.248, 0.248, 0.248, 0.248, 0.248, 0.248, 0.248, 0.249, 0.249, 0.249, 0.249, 0.249, 0.249, 0.249, 0.252, 0.252, 0.25, 0.251, 0.251, 0.251, 0.25, 0.25, 0.252, 0.252, 0.253, 0.253, 0.258, 0.257, 0.257, 0.264, 0.264, 0.264, 0.264, 0.264, 0.264, 0.264, 0.262, 0.263, 0.263, 0.263, 0.263, 0.265, 0.265, 0.265, 0.267, 0.269, 0.269, 0.267, 0.267, 0.267, 0.267, 0.268, 0.268, 0.268, 0.27, 0.27, 0.271, 0.273, 0.273, 0.273, 0.273, 0.272, 0.272, 0.272, 0.272, 0.272, 0.279, 0.28, 0.28, 0.279, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.28, 0.279, 0.279, 0.28, 0.28, 0.278, 0.278, 0.278, 0.278, 0.277, 0.277, 0.278, 0.278, 0.279, 0.278, 0.277, 0.277, 0.277, 0.278, 0.278, 0.278, 0.28, 0.28, 0.281, 0.281, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.286, 0.286, 0.286, 0.286, 0.287, 0.287, 0.287, 0.287, 0.287, 0.292, 0.292, 0.292, 0.292, 0.293, 0.295, 0.295, 0.296, 0.296, 0.296, 0.296, 0.296, 0.296, 0.296, 0.296, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.303, 0.304, 0.304, 0.303]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[0, 15.030568838119494, 57.790239667892386, 84.50988335609429, 123.1764316082, 152.8342161655425, 193.79083943366993, 214.14945659637442, 252.4643747568129, 283.1482128620146, 310.9418339967726, 329.50212525129297, 343.4462374985216, 381.6274786531923, 439.3825760424135, 463.4939441263674, 506.80755085349057, 539.2345328748223, 588.1156086623665, 629.4188142240044, 651.5382648050783, 674.2134844124315, 713.8154718220231, 765.910930496454, 808.0082584440705, 841.6963601648805, 857.2302433907983, 885.280424469709, 914.3695234715935, 949.316756290197, 961.1328044474121, 1001.1007965624328, 1031.3697075664993, 1055.2719280064102, 1102.6924446880814, 1152.1268924534318, 1173.5577307403084, 1225.0510144889352, 1248.1504734218117, 1248.1504734218117, 1265.3228592455384, 1309.7334808886048, 1336.1306028485296, 1378.2999449133872, 1434.6649205803872, 1484.1408462166785, 1519.2087518334388, 1551.4640528321265, 1578.146213209629, 1578.5659132122992, 1623.7087514996526, 1672.043535530567, 1696.5147912621496, 1721.702979815006, 1760.9635602116582, 1805.9929581761357, 1826.4523587346073, 1880.7127034306523, 1906.55751324892, 1935.5100719094273, 1965.2403682470317, 1994.042903089523, 2033.0301284193988, 2068.391478860378, 2107.5474770903584, 2146.4035624384874, 2186.120612508058, 2195.8297943055622, 2235.799354308843, 2279.8455088317387, 2329.9573477447025, 2367.573178833722, 2391.4829717338075, 2429.3052315890777, 2481.8810097157943, 2530.456497877835, 2566.651494234799, 2598.068995207547, 2622.3009209096417, 2622.720620912312, 2666.287945169209, 2713.2257847249493, 2748.407337135075, 2778.546415776013, 2823.37166096568, 2875.7812064826476, 2911.29206702113, 2953.600968331097, 2976.5394010007367, 2976.959101003407, 3019.894655221699, 3048.859420204161, 3089.8921834468824, 3105.351951026915, 3146.955199146269, 3170.7557751655563, 3223.298937880991, 3249.743575489519, 3294.60734888315, 3338.4060522437076, 3370.5237056732158, 3399.4361083745935, 3423.871480733154, 3477.0329554855803, 3530.5605792343595, 3578.211761695144, 3616.03349946141, 3653.7345006287073, 3686.5141802132102, 3686.9338802158804, 3730.7653844654533, 3778.8681116163702, 3804.9237811386556, 3853.5062229931327, 3904.8832637369605, 3954.053657537696, 3986.3421968996495, 4023.624298053977, 4056.7739235937565, 4057.1936235964267, 4101.234871584174, 4138.690645653006, 4182.466295224424, 4232.58391807675, 4285.762251645323, 4332.657567888495, 4348.864014846083, 4376.5517136514145, 4419.394989937539, 4471.038818138833, 4479.643770152326, 4514.395451408621, 4562.589580899473, 4607.7432010471775, 4659.382402640576, 4694.256504684682, 4709.481681388612, 4758.398312801118, 4801.205601900811, 4805.455941027399, 4816.535713189836, 4864.87963685393, 4901.42746314406, 4950.426759356256, 5003.8078321635685, 5053.28375779986, 5091.105495566126, 5127.968696707483, 5161.772470849748, 5162.192170852419, 5206.234970706697, 5255.993318361039, 5286.449194091554, 5310.090483111138, 5340.393483728166, 5387.870131582017, 5406.956581515069, 5461.216926211114, 5501.176659625764, 5503.506913465257, 5555.594765728707, 5607.32832667231, 5631.717589396233, 5662.655766814942, 5698.480047744507, 5743.5094457089845, 5763.465746253723, 5817.726090949768, 5851.403916257615, 5936.225156015153, 5960.036831915373, 5994.041938734049, 6049.6731411457, 6089.7243987083375, 6146.011146163934, 6174.975283575052, 6200.584705305094, 6238.717949688429, 6281.174684655661, 6326.210639536375, 6345.660934638971, 6386.129502081865, 6427.501689839357, 6468.077826070779, 6519.170228099817, 6555.657056641573, 6598.132458019251, 6627.0339068293515, 6666.872662770743, 6708.936563336843, 6721.708713442082, 6756.384229046101, 6785.116658514732, 6816.112328976386, 6871.909626454109, 6899.1327259957725, 6959.178812295192, 6984.434623366588, 7033.199868279689, 7078.23582401871, 7095.189995688193, 7107.336422437423, 7135.981876748793, 7184.585420197242, 7214.542609375709, 7261.787706106895, 7323.739895790809, 7360.264431208366, 7412.307385009521, 7434.8461830556325, 7448.704482251399, 7490.466146761172, 7522.962722563737, 7566.793359756463, 7609.703572225564, 7648.264965939516, 7682.833220887178, 7713.412921833986, 7738.420943355554, 7738.840643358225, 7762.293295335764]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[0, 0.24, 1.05, 1.5, 1.92, 3.26, 3.76, 4.5, 5.18, 5.73, 6.28, 6.87, 7.46, 8.86, 9.46, 10.18, 10.85, 12.35, 13.06, 13.86, 14.6, 16.54, 17.29, 18.08, 19.33, 20.14, 22.13, 23.06, 24.5, 26.22, 27.77, 28.75, 29.73, 30.8, 33.42, 34.68, 35.99, 37.43, 38.63, 40.6, 41.99, 43.51, 44.91, 46.71, 48.18, 49.78, 51.51, 53.47, 55.23, 59.78, 61.77, 63.98, 66.24, 68.26, 71.74, 75.32, 78.13, 80.96, 83.8, 86.1, 92.8, 95.51, 98.71, 101.99, 107.98, 111.96, 116.31, 120.61, 128.7, 134.21, 137.99, 141.9, 145.6, 151.6, 160.35, 164.3, 168.29, 172.19, 176.04, 181.79, 190.57, 194.82, 199.29, 203.34, 212.36, 219.07, 223.45, 228.47, 233.42, 243.82, 248.66, 253.53, 258.73, 263.95, 269.39, 280.43, 285.96, 291.14, 296.54, 301.65, 307.25, 312.17, 321.39, 331.57, 336.69, 342.1, 348.25, 354.57, 360.16, 365.66, 371.03, 377.6, 383.63, 389.76, 396.19, 402.05, 408.04, 416.0, 422.48, 428.72, 436.44, 442.94, 451.24, 458.47, 466.48, 473.43, 481.26, 490.53, 497.39, 505.36, 512.15, 519.11, 527.78, 535.9, 544.86, 553.43, 561.51, 569.94, 579.64, 587.43, 596.05, 603.99, 612.21, 621.91, 630.99, 640.35, 650.57, 660.18, 668.36, 677.62, 686.84, 695.59, 704.07, 711.94, 725.89, 739.85, 751.09, 762.75, 775.44, 784.6, 795.84, 808.21, 820.57, 832.21, 844.23, 856.88, 870.77, 883.34, 896.57, 909.74, 921.8, 932.28, 945.84, 955.16, 966.78, 976.94, 991.1, 1004.13, 1016.61, 1029.42, 1042.17, 1054.81, 1068.33, 1082.1, 1095.28, 1109.11, 1123.53, 1134.79, 1148.48, 1162.61, 1176.16, 1188.06, 1201.45, 1214.18, 1227.65, 1239.21, 1252.54, 1262.4, 1272.26, 1282.15, 1292.56, 1302.99, 1312.73, 1322.71, 1333.05, 1343.15, 1353.02, 1363.14, 1373.76, 1384.58, 1395.2, 1405.48, 1421.87, 1432.81, 1442.74, 1453.06, 1464.08, 1474.98, 1487.24, 1498.54, 1509.25]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[-10, -10, -20, 0, -10, 0, 0, -10, 0, 0, 0, -20, -10, 0, -10, 0, -10, 0, -20, -10, 0, -20, -10, 0, -20, 0, -10, -20, -20, 0, -10, 0, 0, 0, 0, -20, 0, -20, -20, 0, -10, 0, -10, -10, -10, -20, 0, -20, 0, -10, 0, 0, -20, -10, -20, 0, 0, -20, -20, 0, -10, 0, -20, -20, -10, 0, -10, -20, -20, -20, 0, -10, -10, 0, 0, 0, -20, 0, -10, 0, -20, -20, -20, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, -10]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>redistrict</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[100, 131, 253, 360, 360, 421, 421, 449, 449, 449]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[0.175, 0.165, 0.132, 0.138, 0.138, 0.136, 0.136, 0.147, 0.147, 0.147]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[0, 25.857704782485957, 72.11956477165222, 98.06422061920166, 154.35096807479857, 184.3414484024048, 238.92986803054796, 275.2609049558638, 334.5191322326657, 379.5550879716871]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[0, 0.55, 1.73, 3.53, 3.53, 5.58, 5.58, 7.7, 7.7, 7.7]</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[-20, 0, -10, -20, 0, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, 0, 0, -20, -20, -20, -10, 0, -10, 0, -20, 0, 0, -20, -10, 0, -10, 0, -20, -10, -10, -20, -10, 0, 0, 0, 0, -10, -10, 0, 0, -10, -20, 0, -20, -20, -20, 0, 0, 0, -10, 0, -10, -10, -20, 0, -10, 0, -20, -10, -20, 0, -10, -20, 0, -10, 0, 0, -10, 0, 0, 0, -20, 0, -20, 0, 0, -20, 0, 0, -20, -10, -20, 0, -10, -10, 0, 0, 0, 0, -20, 0, -10, -20, 0, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>classWt</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CBCLPR</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[81, 124, 124, 166, 166, 275, 311, 369, 386, 396, 429, 429, 429, 435, 437, 495]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[0.263, 0.267, 0.269, 0.269, 0.265, 0.252, 0.259, 0.269, 0.278, 0.288, 0.299, 0.295, 0.293, 0.306, 0.308, 0.303]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[0, 57.00732235908509, 86.67760329246515, 108.10749077796928, 144.5198429584502, 201.78549036979663, 221.19689011573774, 275.2692993640899, 310.13849523067466, 340.142487001419, 379.4569242358206, 427.174279630184, 455.237198102474, 491.3447641491888, 520.4847122907636, 577.2609097242353]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[0, 11.34, 12.66, 21.98, 24.01, 39.34, 48.59, 60.63, 65.82, 75.23, 86.37, 92.87, 100.58, 111.56, 121.65, 145.44]</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, -10, 0, 0, 0, 0, -10, 0, -10, -10, 0, -10, -10, -10, 0, -10, -10, 0, -20, -20, 0, -20, -20, 0, 0, -20, -20, -20, -20, -20, -20, -20, 0, -20, -10, -20, -20, 0, 0, -20, -20, -20, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, -10, -10, 0, 0, -10, -10, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, -10, -20, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
